--- a/Impfquotenmonitoring/raw_data/RKI_COVID19_Impfquotenmonitoring_2021-05-20.xlsx
+++ b/Impfquotenmonitoring/raw_data/RKI_COVID19_Impfquotenmonitoring_2021-05-20.xlsx
@@ -5,22 +5,22 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Projekte\Abt3_IQM-COVID19\Fachlich\Auswertungen\2021-05-19\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Projekte\Abt3_IQM-COVID19\Fachlich\Auswertungen\2021-05-20\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0F50EDB-6CAA-4B01-B814-D25CB945D669}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B66ACB5-8034-4EEA-BED3-5686F884DD21}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="28515" windowHeight="12600" tabRatio="825" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="110" windowWidth="28520" windowHeight="12600" tabRatio="825" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Erläuterung" sheetId="9" r:id="rId1"/>
-    <sheet name="Impfquote_bis_einschl_18.05.21" sheetId="12" r:id="rId2"/>
-    <sheet name="Impfstoff_bis_einschl_18.05.21" sheetId="14" r:id="rId3"/>
+    <sheet name="Impfquote_bis_einschl_19.05.21" sheetId="12" r:id="rId2"/>
+    <sheet name="Impfstoff_bis_einschl_19.05.21" sheetId="14" r:id="rId3"/>
     <sheet name="Impfungen_proTag" sheetId="13" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="Bundesländer001" localSheetId="1">Impfquote_bis_einschl_18.05.21!#REF!</definedName>
-    <definedName name="Bundesländer001_1" localSheetId="1">Impfquote_bis_einschl_18.05.21!#REF!</definedName>
+    <definedName name="Bundesländer001" localSheetId="1">Impfquote_bis_einschl_19.05.21!#REF!</definedName>
+    <definedName name="Bundesländer001_1" localSheetId="1">Impfquote_bis_einschl_19.05.21!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
@@ -248,16 +248,16 @@
     <t xml:space="preserve">**Unter "begonnene Impfserie" werden alle Erstimpfungen mit den Impfstoffen von BioNTech, Moderna und AstraZeneca zusammengefasst. Unter "vollständig geimpft" erscheinen alle Zweitimpfungen mit BioNTech, Moderna und AstraZeneca sowie alle Impfungen mit Janssen. </t>
   </si>
   <si>
-    <t>Impfquote bundesweit und nach Altersgruppe (&lt;60 vs. 60+ Jahre) für Impfungen in Impfzentren und bei der niedergelassenen Ärzteschaft bis einschließlich 18.05.21 (Impfquote_bis_einschl_18.05.21)</t>
-  </si>
-  <si>
-    <t>Anzahl Impfungen nach Impfstoff bis einschließlich 18.05.21 (Impfstoff_bis_einschl_18.05.21)</t>
-  </si>
-  <si>
-    <t>Datenstand: 19.05.2021, 11:00 Uhr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Die kumulative Zahl der Impfungen umfasst alle Impfungen, die bis einschließlich 18.05.21 durchgeführt und bis zum 19.05.21, 11:00 Uhr, dem RKI gemeldet wurden. Nachmeldungen und Datenkorrekturen aus zurückliegenden Tagen sind in der kumulativen Zahl der Impfungen enthalten. </t>
+    <t>Datenstand: 20.05.2021, 14:00 Uhr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die kumulative Zahl der Impfungen umfasst alle Impfungen, die bis einschließlich 19.05.21 durchgeführt und bis zum 20.05.21, 14:00 Uhr, dem RKI gemeldet wurden. Nachmeldungen und Datenkorrekturen aus zurückliegenden Tagen sind in der kumulativen Zahl der Impfungen enthalten. </t>
+  </si>
+  <si>
+    <t>Impfquote bundesweit und nach Altersgruppe (&lt;60 vs. 60+ Jahre) für Impfungen in Impfzentren und bei der niedergelassenen Ärzteschaft bis einschließlich 19.05.21 (Impfquote_bis_einschl_19.05.21)</t>
+  </si>
+  <si>
+    <t>Anzahl Impfungen nach Impfstoff bis einschließlich 19.05.21 (Impfstoff_bis_einschl_19.05.21)</t>
   </si>
   <si>
     <t>-</t>
@@ -275,7 +275,7 @@
     <t>Gesamtzahl verabreichter Impfstoffdosen</t>
   </si>
   <si>
-    <t>In den Gesamtsummen der Zweitimpfung und der täglichen Gesamtzahlen sind n=2314 Impfungen enthalten, die entsprechend den vorliegenden Meldedaten nicht plausibel einem Impfdatum zugewiesen werden können.</t>
+    <t>In den Gesamtsummen der Zweitimpfung und der täglichen Gesamtzahlen sind n=2.314 Impfungen enthalten, die entsprechend den vorliegenden Meldedaten nicht plausibel einem Impfdatum zugewiesen werden können.</t>
   </si>
 </sst>
 </file>
@@ -287,7 +287,7 @@
     <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -371,12 +371,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -563,7 +557,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -716,6 +710,7 @@
     <xf numFmtId="166" fontId="0" fillId="6" borderId="2" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -740,56 +735,46 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="8" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="13" fillId="8" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="13" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="9" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="13" fillId="9" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1142,113 +1127,113 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5241AA5B-8CBB-47B1-9317-352256D0A517}">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="214.5703125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="214.54296875" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="11.453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="27" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="9"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
       <c r="B4" s="8"/>
       <c r="C4" s="9"/>
     </row>
-    <row r="5" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="27" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="27" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="10"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="27" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="26" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
         <v>56</v>
       </c>
@@ -1263,128 +1248,128 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47A1EB7E-F725-49E9-9B87-E64B6D1D2BBC}">
   <dimension ref="A1:U32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" style="4" customWidth="1"/>
-    <col min="6" max="8" width="11.42578125" style="4"/>
+    <col min="1" max="1" width="3.7265625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.7265625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="18.1796875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="13.453125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="4" customWidth="1"/>
+    <col min="6" max="8" width="11.453125" style="4"/>
     <col min="9" max="9" width="13" style="4" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="12.26953125" style="4" customWidth="1"/>
     <col min="11" max="11" width="10" style="4" customWidth="1"/>
-    <col min="12" max="14" width="11.42578125" style="4"/>
-    <col min="15" max="15" width="12.7109375" style="4" customWidth="1"/>
-    <col min="16" max="16" width="12.5703125" style="4" customWidth="1"/>
-    <col min="17" max="17" width="9.5703125" style="4" customWidth="1"/>
-    <col min="18" max="18" width="12.85546875" style="4" customWidth="1"/>
-    <col min="19" max="19" width="11.42578125" style="4"/>
-    <col min="20" max="20" width="18.42578125" style="4" customWidth="1"/>
-    <col min="21" max="16384" width="11.42578125" style="4"/>
+    <col min="12" max="14" width="11.453125" style="4"/>
+    <col min="15" max="15" width="12.7265625" style="4" customWidth="1"/>
+    <col min="16" max="16" width="12.54296875" style="4" customWidth="1"/>
+    <col min="17" max="17" width="9.54296875" style="4" customWidth="1"/>
+    <col min="18" max="18" width="12.81640625" style="4" customWidth="1"/>
+    <col min="19" max="19" width="11.453125" style="4"/>
+    <col min="20" max="20" width="18.453125" style="4" customWidth="1"/>
+    <col min="21" max="16384" width="11.453125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+    <row r="1" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="71" t="s">
+      <c r="C1" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71" t="s">
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71" t="s">
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72" t="s">
         <v>50</v>
       </c>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-    </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="68"/>
-      <c r="B2" s="68"/>
-      <c r="C2" s="72" t="s">
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+    </row>
+    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="69"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="73" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="67" t="s">
+      <c r="D2" s="68" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="67" t="s">
+      <c r="E2" s="68" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="72" t="s">
+      <c r="F2" s="73" t="s">
         <v>62</v>
       </c>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72" t="s">
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73" t="s">
         <v>63</v>
       </c>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="73" t="s">
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="74" t="s">
         <v>60</v>
       </c>
-      <c r="M2" s="73"/>
-      <c r="N2" s="73" t="s">
+      <c r="M2" s="74"/>
+      <c r="N2" s="74" t="s">
         <v>58</v>
       </c>
-      <c r="O2" s="73"/>
-      <c r="P2" s="73" t="s">
+      <c r="O2" s="74"/>
+      <c r="P2" s="74" t="s">
         <v>60</v>
       </c>
-      <c r="Q2" s="73"/>
-      <c r="R2" s="73" t="s">
+      <c r="Q2" s="74"/>
+      <c r="R2" s="74" t="s">
         <v>58</v>
       </c>
-      <c r="S2" s="73"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="68"/>
-      <c r="B3" s="68"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="73"/>
-      <c r="S3" s="73"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="69"/>
-      <c r="B4" s="69"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
+      <c r="S2" s="74"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A3" s="69"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="74"/>
+      <c r="M3" s="74"/>
+      <c r="N3" s="74"/>
+      <c r="O3" s="74"/>
+      <c r="P3" s="74"/>
+      <c r="Q3" s="74"/>
+      <c r="R3" s="74"/>
+      <c r="S3" s="74"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A4" s="70"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
       <c r="F4" s="28" t="s">
         <v>15</v>
       </c>
@@ -1428,7 +1413,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" s="30" t="s">
         <v>21</v>
       </c>
@@ -1436,58 +1421,58 @@
         <v>69</v>
       </c>
       <c r="C5" s="32">
-        <v>5453811</v>
+        <v>5595806</v>
       </c>
       <c r="D5" s="32">
-        <v>4128442</v>
+        <v>4200570</v>
       </c>
       <c r="E5" s="32">
-        <v>1325369</v>
+        <v>1395236</v>
       </c>
       <c r="F5" s="33">
-        <v>37.191851027990538</v>
+        <v>37.841629765574083</v>
       </c>
       <c r="G5" s="33">
-        <v>23.993609648907725</v>
+        <v>24.69658030459885</v>
       </c>
       <c r="H5" s="33">
-        <v>73.421965093244623</v>
+        <v>74.002448726849678</v>
       </c>
       <c r="I5" s="33">
-        <v>11.93983745081481</v>
+        <v>12.569247542024184</v>
       </c>
       <c r="J5" s="33">
-        <v>6.14967793192349</v>
+        <v>6.5143409562313197</v>
       </c>
       <c r="K5" s="33">
-        <v>27.118912695583177</v>
+        <v>28.392934210067793</v>
       </c>
       <c r="L5" s="32">
-        <v>1464149</v>
+        <v>1490115</v>
       </c>
       <c r="M5" s="32">
-        <v>1498188</v>
+        <v>1501785</v>
       </c>
       <c r="N5" s="32">
-        <v>451984</v>
+        <v>468278</v>
       </c>
       <c r="O5" s="32">
-        <v>723741</v>
+        <v>733448</v>
       </c>
       <c r="P5" s="34">
-        <v>483169</v>
+        <v>514256</v>
       </c>
       <c r="Q5" s="34">
-        <v>693023</v>
+        <v>706750</v>
       </c>
       <c r="R5" s="34">
-        <v>47123</v>
+        <v>60425</v>
       </c>
       <c r="S5" s="34">
-        <v>85598</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+        <v>113913</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
         <v>22</v>
       </c>
@@ -1495,16 +1480,16 @@
         <v>0</v>
       </c>
       <c r="C6" s="13">
-        <v>6593437</v>
+        <v>6760059</v>
       </c>
       <c r="D6" s="13">
-        <v>5140469</v>
+        <v>5218875</v>
       </c>
       <c r="E6" s="13">
-        <v>1452968</v>
+        <v>1541184</v>
       </c>
       <c r="F6" s="14">
-        <v>39.166262912544461</v>
+        <v>39.763653930741619</v>
       </c>
       <c r="G6" s="15" t="s">
         <v>77</v>
@@ -1513,7 +1498,7 @@
         <v>77</v>
       </c>
       <c r="I6" s="14">
-        <v>11.070454211768205</v>
+        <v>11.74258958484273</v>
       </c>
       <c r="J6" s="15" t="s">
         <v>77</v>
@@ -1534,19 +1519,19 @@
         <v>77</v>
       </c>
       <c r="P6" s="17">
-        <v>756229</v>
+        <v>795071</v>
       </c>
       <c r="Q6" s="18">
-        <v>865581</v>
+        <v>881231</v>
       </c>
       <c r="R6" s="17">
-        <v>55350</v>
+        <v>73528</v>
       </c>
       <c r="S6" s="18">
-        <v>69714</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+        <v>107537</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" s="35">
         <v>11</v>
       </c>
@@ -1554,16 +1539,16 @@
         <v>2</v>
       </c>
       <c r="C7" s="37">
-        <v>1775753</v>
+        <v>1830887</v>
       </c>
       <c r="D7" s="37">
-        <v>1283686</v>
+        <v>1313740</v>
       </c>
       <c r="E7" s="37">
-        <v>492067</v>
+        <v>517147</v>
       </c>
       <c r="F7" s="38">
-        <v>34.982671983662037</v>
+        <v>35.801695657517627</v>
       </c>
       <c r="G7" s="39" t="s">
         <v>77</v>
@@ -1572,7 +1557,7 @@
         <v>77</v>
       </c>
       <c r="I7" s="38">
-        <v>13.409679980138936</v>
+        <v>14.09315351911205</v>
       </c>
       <c r="J7" s="39" t="s">
         <v>77</v>
@@ -1593,19 +1578,19 @@
         <v>77</v>
       </c>
       <c r="P7" s="41">
-        <v>287522</v>
+        <v>302793</v>
       </c>
       <c r="Q7" s="41">
-        <v>127336</v>
+        <v>130685</v>
       </c>
       <c r="R7" s="41">
-        <v>25026</v>
+        <v>31552</v>
       </c>
       <c r="S7" s="41">
-        <v>15232</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+        <v>20405</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" s="11">
         <v>12</v>
       </c>
@@ -1613,58 +1598,58 @@
         <v>1</v>
       </c>
       <c r="C8" s="13">
-        <v>1157375</v>
+        <v>1190685</v>
       </c>
       <c r="D8" s="13">
-        <v>834947</v>
+        <v>851532</v>
       </c>
       <c r="E8" s="13">
-        <v>322428</v>
+        <v>339153</v>
       </c>
       <c r="F8" s="14">
-        <v>33.107947085780403</v>
+        <v>33.765587992829197</v>
       </c>
       <c r="G8" s="44">
-        <v>18.706821934649479</v>
+        <v>19.24710055796843</v>
       </c>
       <c r="H8" s="44">
-        <v>61.64931570100066</v>
+        <v>62.580231682887359</v>
       </c>
       <c r="I8" s="44">
-        <v>12.785157815973951</v>
+        <v>13.448350108430454</v>
       </c>
       <c r="J8" s="63">
-        <v>6.5591907416643451</v>
+        <v>6.9284876280809993</v>
       </c>
       <c r="K8" s="44">
-        <v>25.25545479249784</v>
+        <v>26.481204924163176</v>
       </c>
       <c r="L8" s="17">
-        <v>205985</v>
+        <v>208563</v>
       </c>
       <c r="M8" s="18">
-        <v>301968</v>
+        <v>303786</v>
       </c>
       <c r="N8" s="17">
-        <v>94630</v>
+        <v>98427</v>
       </c>
       <c r="O8" s="18">
-        <v>178129</v>
+        <v>182621</v>
       </c>
       <c r="P8" s="17">
-        <v>110205</v>
+        <v>116759</v>
       </c>
       <c r="Q8" s="18">
-        <v>210741</v>
+        <v>216665</v>
       </c>
       <c r="R8" s="17">
-        <v>16236</v>
+        <v>18681</v>
       </c>
       <c r="S8" s="18">
-        <v>31909</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+        <v>37611</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" s="35" t="s">
         <v>23</v>
       </c>
@@ -1672,58 +1657,58 @@
         <v>68</v>
       </c>
       <c r="C9" s="37">
-        <v>368954</v>
+        <v>378525</v>
       </c>
       <c r="D9" s="37">
-        <v>263252</v>
+        <v>268555</v>
       </c>
       <c r="E9" s="37">
-        <v>105702</v>
+        <v>109970</v>
       </c>
       <c r="F9" s="38">
-        <v>38.645218305289767</v>
+        <v>39.423695174118691</v>
       </c>
       <c r="G9" s="64">
-        <v>22.532767147197621</v>
+        <v>23.373763656344948</v>
       </c>
       <c r="H9" s="64">
-        <v>82.342073321374471</v>
+        <v>83.048325939611374</v>
       </c>
       <c r="I9" s="64">
-        <v>15.516983214964137</v>
+        <v>16.143522772980702</v>
       </c>
       <c r="J9" s="64">
-        <v>6.0362660805481934</v>
+        <v>6.333837028896502</v>
       </c>
       <c r="K9" s="64">
-        <v>39.861112602983987</v>
+        <v>41.268247097113765</v>
       </c>
       <c r="L9" s="42">
-        <v>74029</v>
+        <v>75468</v>
       </c>
       <c r="M9" s="42">
-        <v>122353</v>
+        <v>123114</v>
       </c>
       <c r="N9" s="42">
-        <v>27425</v>
+        <v>28330</v>
       </c>
       <c r="O9" s="42">
-        <v>71193</v>
+        <v>72620</v>
       </c>
       <c r="P9" s="42">
-        <v>37510</v>
+        <v>40234</v>
       </c>
       <c r="Q9" s="42">
-        <v>30963</v>
+        <v>31517</v>
       </c>
       <c r="R9" s="42">
-        <v>2455</v>
+        <v>3023</v>
       </c>
       <c r="S9" s="42">
-        <v>3026</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+        <v>4219</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
         <v>24</v>
       </c>
@@ -1731,58 +1716,58 @@
         <v>3</v>
       </c>
       <c r="C10" s="13">
-        <v>886306</v>
+        <v>907049</v>
       </c>
       <c r="D10" s="13">
-        <v>681087</v>
+        <v>688514</v>
       </c>
       <c r="E10" s="13">
-        <v>205219</v>
+        <v>218535</v>
       </c>
       <c r="F10" s="14">
-        <v>36.870260868435459</v>
+        <v>37.272317327404529</v>
       </c>
       <c r="G10" s="44">
-        <v>25.852022221435899</v>
+        <v>26.221223594352644</v>
       </c>
       <c r="H10" s="44">
-        <v>72.750533736524162</v>
+        <v>73.260894097921934</v>
       </c>
       <c r="I10" s="44">
-        <v>11.109414898771311</v>
+        <v>11.830269053562235</v>
       </c>
       <c r="J10" s="44">
-        <v>6.651640069353526</v>
+        <v>7.0773857966809377</v>
       </c>
       <c r="K10" s="44">
-        <v>25.361639601753094</v>
+        <v>27.041499022346688</v>
       </c>
       <c r="L10" s="18">
-        <v>280753</v>
+        <v>281132</v>
       </c>
       <c r="M10" s="18">
-        <v>224909</v>
+        <v>225087</v>
       </c>
       <c r="N10" s="18">
-        <v>88482</v>
+        <v>92999</v>
       </c>
       <c r="O10" s="18">
-        <v>103444</v>
+        <v>107425</v>
       </c>
       <c r="P10" s="18">
-        <v>84549</v>
+        <v>89387</v>
       </c>
       <c r="Q10" s="18">
-        <v>90976</v>
+        <v>93014</v>
       </c>
       <c r="R10" s="18">
-        <v>5509</v>
+        <v>7008</v>
       </c>
       <c r="S10" s="18">
-        <v>6677</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+        <v>9990</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11" s="35" t="s">
         <v>25</v>
       </c>
@@ -1790,58 +1775,58 @@
         <v>11</v>
       </c>
       <c r="C11" s="37">
-        <v>3064159</v>
+        <v>3143088</v>
       </c>
       <c r="D11" s="37">
-        <v>2395250</v>
+        <v>2441929</v>
       </c>
       <c r="E11" s="37">
-        <v>668909</v>
+        <v>701159</v>
       </c>
       <c r="F11" s="38">
-        <v>38.091913588885639</v>
+        <v>38.834254653248685</v>
       </c>
       <c r="G11" s="64">
-        <v>25.1684605752816</v>
+        <v>25.874021852405697</v>
       </c>
       <c r="H11" s="64">
-        <v>72.499306803115772</v>
+        <v>73.366094167592863</v>
       </c>
       <c r="I11" s="64">
-        <v>10.637730435999542</v>
+        <v>11.150605590259666</v>
       </c>
       <c r="J11" s="64">
-        <v>4.9379664330108355</v>
+        <v>5.2536905575452222</v>
       </c>
       <c r="K11" s="64">
-        <v>25.800671527200116</v>
+        <v>26.812039956101412</v>
       </c>
       <c r="L11" s="41">
-        <v>843106</v>
+        <v>855559</v>
       </c>
       <c r="M11" s="41">
-        <v>881117</v>
+        <v>885533</v>
       </c>
       <c r="N11" s="41">
-        <v>201431</v>
+        <v>207627</v>
       </c>
       <c r="O11" s="41">
-        <v>411299</v>
+        <v>413477</v>
       </c>
       <c r="P11" s="41">
-        <v>307444</v>
+        <v>327245</v>
       </c>
       <c r="Q11" s="41">
-        <v>363467</v>
+        <v>373931</v>
       </c>
       <c r="R11" s="41">
-        <v>24303</v>
+        <v>32540</v>
       </c>
       <c r="S11" s="41">
-        <v>31617</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+        <v>46801</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" s="11">
         <v>13</v>
       </c>
@@ -1849,58 +1834,58 @@
         <v>4</v>
       </c>
       <c r="C12" s="13">
-        <v>822031</v>
+        <v>844514</v>
       </c>
       <c r="D12" s="13">
-        <v>642780</v>
+        <v>652923</v>
       </c>
       <c r="E12" s="13">
-        <v>179251</v>
+        <v>191591</v>
       </c>
       <c r="F12" s="14">
-        <v>39.970450297175994</v>
+        <v>40.60117974949911</v>
       </c>
       <c r="G12" s="44">
-        <v>24.699418907816799</v>
+        <v>25.289702026132264</v>
       </c>
       <c r="H12" s="44">
-        <v>70.280140993227164</v>
+        <v>71.036410947275172</v>
       </c>
       <c r="I12" s="44">
-        <v>11.146493646689526</v>
+        <v>11.913840727599249</v>
       </c>
       <c r="J12" s="44">
-        <v>5.0130923932819895</v>
+        <v>5.3939534901169308</v>
       </c>
       <c r="K12" s="44">
-        <v>22.94092679055862</v>
+        <v>24.42283204458634</v>
       </c>
       <c r="L12" s="18">
-        <v>171851</v>
+        <v>174395</v>
       </c>
       <c r="M12" s="18">
-        <v>224860</v>
+        <v>225923</v>
       </c>
       <c r="N12" s="18">
-        <v>43614</v>
+        <v>45356</v>
       </c>
       <c r="O12" s="18">
-        <v>109551</v>
+        <v>112601</v>
       </c>
       <c r="P12" s="18">
-        <v>91511</v>
+        <v>95261</v>
       </c>
       <c r="Q12" s="18">
-        <v>155967</v>
+        <v>159002</v>
       </c>
       <c r="R12" s="18">
-        <v>9839</v>
+        <v>12158</v>
       </c>
       <c r="S12" s="18">
-        <v>14759</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+        <v>19739</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" s="35" t="s">
         <v>26</v>
       </c>
@@ -1908,58 +1893,58 @@
         <v>5</v>
       </c>
       <c r="C13" s="37">
-        <v>3938852</v>
+        <v>4054912</v>
       </c>
       <c r="D13" s="37">
-        <v>3125466</v>
+        <v>3179996</v>
       </c>
       <c r="E13" s="37">
-        <v>813386</v>
+        <v>874916</v>
       </c>
       <c r="F13" s="38">
-        <v>39.099565552876747</v>
+        <v>39.781735606749791</v>
       </c>
       <c r="G13" s="64">
-        <v>24.231104301401025</v>
+        <v>24.889799405961543</v>
       </c>
       <c r="H13" s="64">
-        <v>76.268650843922444</v>
+        <v>77.309323508721562</v>
       </c>
       <c r="I13" s="64">
-        <v>10.175455188695768</v>
+        <v>10.945195210973569</v>
       </c>
       <c r="J13" s="64">
-        <v>3.7661221343488753</v>
+        <v>4.1244181913847351</v>
       </c>
       <c r="K13" s="64">
-        <v>25.265961931502996</v>
+        <v>26.745490699493391</v>
       </c>
       <c r="L13" s="42">
-        <v>970953</v>
+        <v>982451</v>
       </c>
       <c r="M13" s="42">
-        <v>1209397</v>
+        <v>1219509</v>
       </c>
       <c r="N13" s="42">
-        <v>186022</v>
+        <v>196083</v>
       </c>
       <c r="O13" s="42">
-        <v>550412</v>
+        <v>563124</v>
       </c>
       <c r="P13" s="42">
-        <v>405562</v>
+        <v>431483</v>
       </c>
       <c r="Q13" s="42">
-        <v>554568</v>
+        <v>568525</v>
       </c>
       <c r="R13" s="42">
-        <v>27923</v>
+        <v>38216</v>
       </c>
       <c r="S13" s="42">
-        <v>33947</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+        <v>55454</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14" s="11" t="s">
         <v>27</v>
       </c>
@@ -1967,58 +1952,58 @@
         <v>67</v>
       </c>
       <c r="C14" s="13">
-        <v>9201397</v>
+        <v>9453617</v>
       </c>
       <c r="D14" s="13">
-        <v>7220528</v>
+        <v>7359823</v>
       </c>
       <c r="E14" s="13">
-        <v>1980869</v>
+        <v>2093794</v>
       </c>
       <c r="F14" s="14">
-        <v>40.232011407225663</v>
+        <v>41.008148281006847</v>
       </c>
       <c r="G14" s="44">
-        <v>25.891995344570905</v>
+        <v>26.735401233722744</v>
       </c>
       <c r="H14" s="44">
-        <v>77.294139139626722</v>
+        <v>77.909516828206051</v>
       </c>
       <c r="I14" s="44">
-        <v>11.03719066032563</v>
+        <v>11.66639670843748</v>
       </c>
       <c r="J14" s="44">
-        <v>5.2304423477583253</v>
+        <v>5.550684878101305</v>
       </c>
       <c r="K14" s="44">
-        <v>25.862756969343074</v>
+        <v>27.275183140057841</v>
       </c>
       <c r="L14" s="18">
-        <v>2196592</v>
+        <v>2233375</v>
       </c>
       <c r="M14" s="18">
-        <v>2652004</v>
+        <v>2657698</v>
       </c>
       <c r="N14" s="18">
-        <v>607156</v>
+        <v>624315</v>
       </c>
       <c r="O14" s="18">
-        <v>1208058</v>
+        <v>1230277</v>
       </c>
       <c r="P14" s="18">
-        <v>1150648</v>
+        <v>1222898</v>
       </c>
       <c r="Q14" s="18">
-        <v>1227790</v>
+        <v>1252985</v>
       </c>
       <c r="R14" s="18">
-        <v>69020</v>
+        <v>93261</v>
       </c>
       <c r="S14" s="18">
-        <v>90128</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+        <v>138806</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15" s="35" t="s">
         <v>28</v>
       </c>
@@ -2026,58 +2011,58 @@
         <v>9</v>
       </c>
       <c r="C15" s="37">
-        <v>2042823</v>
+        <v>2098267</v>
       </c>
       <c r="D15" s="37">
-        <v>1487254</v>
+        <v>1516763</v>
       </c>
       <c r="E15" s="37">
-        <v>555569</v>
+        <v>581504</v>
       </c>
       <c r="F15" s="38">
-        <v>36.328510958857599</v>
+        <v>37.049314553862175</v>
       </c>
       <c r="G15" s="64">
-        <v>21.830527989927269</v>
+        <v>22.489307389429154</v>
       </c>
       <c r="H15" s="64">
-        <v>71.398115454526462</v>
+        <v>72.269101393560788</v>
       </c>
       <c r="I15" s="64">
-        <v>13.570643955169432</v>
+        <v>14.204146996155014</v>
       </c>
       <c r="J15" s="64">
-        <v>6.8718833352661495</v>
+        <v>7.1550062678440272</v>
       </c>
       <c r="K15" s="64">
-        <v>29.791112132544974</v>
+        <v>31.273008378079105</v>
       </c>
       <c r="L15" s="42">
-        <v>451016</v>
+        <v>456700</v>
       </c>
       <c r="M15" s="42">
-        <v>575181</v>
+        <v>577269</v>
       </c>
       <c r="N15" s="42">
-        <v>183712</v>
+        <v>187477</v>
       </c>
       <c r="O15" s="42">
-        <v>327035</v>
+        <v>333977</v>
       </c>
       <c r="P15" s="42">
-        <v>181486</v>
+        <v>194889</v>
       </c>
       <c r="Q15" s="42">
-        <v>279151</v>
+        <v>287485</v>
       </c>
       <c r="R15" s="42">
-        <v>15389</v>
+        <v>19827</v>
       </c>
       <c r="S15" s="42">
-        <v>29438</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+        <v>40228</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16" s="11">
         <v>10</v>
       </c>
@@ -2085,58 +2070,58 @@
         <v>10</v>
       </c>
       <c r="C16" s="13">
-        <v>544980</v>
+        <v>559800</v>
       </c>
       <c r="D16" s="13">
-        <v>418906</v>
+        <v>424441</v>
       </c>
       <c r="E16" s="13">
-        <v>126074</v>
+        <v>135359</v>
       </c>
       <c r="F16" s="14">
-        <v>42.447210268247531</v>
+        <v>43.008064753107497</v>
       </c>
       <c r="G16" s="44">
-        <v>27.003637144826392</v>
+        <v>27.571586708160154</v>
       </c>
       <c r="H16" s="44">
-        <v>75.14601318461942</v>
+        <v>75.691845057031216</v>
       </c>
       <c r="I16" s="44">
-        <v>12.774917493086848</v>
+        <v>13.715754691266579</v>
       </c>
       <c r="J16" s="44">
-        <v>4.8028810722267146</v>
+        <v>5.240591610398833</v>
       </c>
       <c r="K16" s="44">
-        <v>29.654338068298475</v>
+        <v>31.660459724367541</v>
       </c>
       <c r="L16" s="18">
-        <v>125065</v>
+        <v>125751</v>
       </c>
       <c r="M16" s="18">
-        <v>174032</v>
+        <v>174385</v>
       </c>
       <c r="N16" s="18">
-        <v>27286</v>
+        <v>28616</v>
       </c>
       <c r="O16" s="18">
-        <v>88163</v>
+        <v>91763</v>
       </c>
       <c r="P16" s="18">
-        <v>55942</v>
+        <v>59063</v>
       </c>
       <c r="Q16" s="18">
-        <v>63866</v>
+        <v>65241</v>
       </c>
       <c r="R16" s="18">
-        <v>4908</v>
+        <v>6512</v>
       </c>
       <c r="S16" s="18">
-        <v>5717</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+        <v>8468</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A17" s="35">
         <v>14</v>
       </c>
@@ -2144,16 +2129,16 @@
         <v>6</v>
       </c>
       <c r="C17" s="37">
-        <v>1981281</v>
+        <v>2032187</v>
       </c>
       <c r="D17" s="37">
-        <v>1343565</v>
+        <v>1369335</v>
       </c>
       <c r="E17" s="37">
-        <v>637716</v>
+        <v>662852</v>
       </c>
       <c r="F17" s="38">
-        <v>32.995446185643267</v>
+        <v>33.628309238941043</v>
       </c>
       <c r="G17" s="64" t="s">
         <v>77</v>
@@ -2162,7 +2147,7 @@
         <v>77</v>
       </c>
       <c r="I17" s="64">
-        <v>15.661113500071586</v>
+        <v>16.278406697886602</v>
       </c>
       <c r="J17" s="64" t="s">
         <v>77</v>
@@ -2183,19 +2168,19 @@
         <v>77</v>
       </c>
       <c r="P17" s="41">
-        <v>108892</v>
+        <v>114758</v>
       </c>
       <c r="Q17" s="41">
-        <v>278505</v>
+        <v>286781</v>
       </c>
       <c r="R17" s="41">
-        <v>20273</v>
+        <v>23727</v>
       </c>
       <c r="S17" s="41">
-        <v>56523</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+        <v>68495</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A18" s="11">
         <v>15</v>
       </c>
@@ -2203,16 +2188,16 @@
         <v>7</v>
       </c>
       <c r="C18" s="13">
-        <v>1059860</v>
+        <v>1087253</v>
       </c>
       <c r="D18" s="13">
-        <v>795989</v>
+        <v>811566</v>
       </c>
       <c r="E18" s="13">
-        <v>263871</v>
+        <v>275687</v>
       </c>
       <c r="F18" s="14">
-        <v>36.267337712811567</v>
+        <v>36.977066515034295</v>
       </c>
       <c r="G18" s="44" t="s">
         <v>77</v>
@@ -2221,7 +2206,7 @@
         <v>77</v>
       </c>
       <c r="I18" s="44">
-        <v>12.022651908025489</v>
+        <v>12.561019727699607</v>
       </c>
       <c r="J18" s="44" t="s">
         <v>77</v>
@@ -2242,19 +2227,19 @@
         <v>77</v>
       </c>
       <c r="P18" s="17">
-        <v>71298</v>
+        <v>75295</v>
       </c>
       <c r="Q18" s="18">
-        <v>169176</v>
+        <v>173385</v>
       </c>
       <c r="R18" s="17">
-        <v>6485</v>
+        <v>7833</v>
       </c>
       <c r="S18" s="18">
-        <v>14495</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+        <v>20131</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A19" s="35" t="s">
         <v>29</v>
       </c>
@@ -2262,58 +2247,58 @@
         <v>8</v>
       </c>
       <c r="C19" s="37">
-        <v>1452535</v>
+        <v>1468717</v>
       </c>
       <c r="D19" s="37">
-        <v>1033700</v>
+        <v>1039642</v>
       </c>
       <c r="E19" s="37">
-        <v>418835</v>
+        <v>429075</v>
       </c>
       <c r="F19" s="38">
-        <v>35.598512693657533</v>
+        <v>35.803143014278319</v>
       </c>
       <c r="G19" s="64">
-        <v>20.952012467507981</v>
+        <v>21.175172611548156</v>
       </c>
       <c r="H19" s="64">
-        <v>70.203513012631475</v>
+        <v>70.58846594296746</v>
       </c>
       <c r="I19" s="64">
-        <v>14.423820319288044</v>
+        <v>14.776464964720038</v>
       </c>
       <c r="J19" s="64">
-        <v>7.8221926748480595</v>
+        <v>8.0956804641338191</v>
       </c>
       <c r="K19" s="64">
-        <v>29.722333382154009</v>
+        <v>30.037053737722275</v>
       </c>
       <c r="L19" s="42">
-        <v>294753</v>
+        <v>299268</v>
       </c>
       <c r="M19" s="42">
-        <v>381162</v>
+        <v>384455</v>
       </c>
       <c r="N19" s="42">
-        <v>149019</v>
+        <v>154584</v>
       </c>
       <c r="O19" s="42">
-        <v>237182</v>
+        <v>239877</v>
       </c>
       <c r="P19" s="42">
-        <v>131967</v>
+        <v>131997</v>
       </c>
       <c r="Q19" s="42">
-        <v>227586</v>
+        <v>227631</v>
       </c>
       <c r="R19" s="42">
-        <v>10292</v>
+        <v>10297</v>
       </c>
       <c r="S19" s="42">
-        <v>20546</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+        <v>20580</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A20" s="11">
         <v>16</v>
       </c>
@@ -2321,70 +2306,70 @@
         <v>70</v>
       </c>
       <c r="C20" s="13">
-        <v>1074962</v>
+        <v>1101370</v>
       </c>
       <c r="D20" s="13">
-        <v>740310</v>
+        <v>757460</v>
       </c>
       <c r="E20" s="13">
-        <v>334652</v>
+        <v>343910</v>
       </c>
       <c r="F20" s="14">
-        <v>34.701304691433023</v>
+        <v>35.505194109998321</v>
       </c>
       <c r="G20" s="44">
-        <v>20.192640788297567</v>
+        <v>20.886050685640399</v>
       </c>
       <c r="H20" s="44">
-        <v>62.583372578225102</v>
+        <v>63.599450206446384</v>
       </c>
       <c r="I20" s="44">
-        <v>15.686484064239906</v>
+        <v>16.120443728209441</v>
       </c>
       <c r="J20" s="44">
-        <v>7.9841217116846126</v>
+        <v>8.1988877499960804</v>
       </c>
       <c r="K20" s="44">
-        <v>30.463162736701459</v>
+        <v>31.318108140668294</v>
       </c>
       <c r="L20" s="18">
-        <v>222858</v>
+        <v>229314</v>
       </c>
       <c r="M20" s="18">
-        <v>307741</v>
+        <v>310716</v>
       </c>
       <c r="N20" s="18">
-        <v>101413</v>
+        <v>102731</v>
       </c>
       <c r="O20" s="18">
-        <v>201070</v>
+        <v>202045</v>
       </c>
       <c r="P20" s="18">
-        <v>60429</v>
+        <v>63701</v>
       </c>
       <c r="Q20" s="18">
-        <v>149403</v>
+        <v>153850</v>
       </c>
       <c r="R20" s="18">
-        <v>10598</v>
+        <v>12293</v>
       </c>
       <c r="S20" s="18">
-        <v>21450</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+        <v>26720</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A21" s="35"/>
       <c r="B21" s="36" t="s">
         <v>46</v>
       </c>
       <c r="C21" s="37">
-        <v>99333</v>
+        <v>104868</v>
       </c>
       <c r="D21" s="37">
-        <v>80592</v>
+        <v>82972</v>
       </c>
       <c r="E21" s="37">
-        <v>18741</v>
+        <v>21896</v>
       </c>
       <c r="F21" s="43" t="s">
         <v>77</v>
@@ -2405,16 +2390,16 @@
         <v>77</v>
       </c>
       <c r="L21" s="41">
-        <v>76665</v>
+        <v>79438</v>
       </c>
       <c r="M21" s="41">
-        <v>6706</v>
+        <v>6810</v>
       </c>
       <c r="N21" s="41">
-        <v>14948</v>
+        <v>17476</v>
       </c>
       <c r="O21" s="41">
-        <v>1014</v>
+        <v>1144</v>
       </c>
       <c r="P21" s="41" t="s">
         <v>77</v>
@@ -2429,22 +2414,22 @@
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="19"/>
       <c r="B22" s="20" t="s">
         <v>15</v>
       </c>
       <c r="C22" s="21">
-        <v>41517849</v>
+        <v>42611604</v>
       </c>
       <c r="D22" s="21">
-        <v>31616223</v>
+        <v>32178636</v>
       </c>
       <c r="E22" s="21">
-        <v>9901626</v>
+        <v>10432968</v>
       </c>
       <c r="F22" s="22">
-        <v>38.015478332430384</v>
+        <v>38.69172606813801</v>
       </c>
       <c r="G22" s="23" t="s">
         <v>77</v>
@@ -2453,7 +2438,7 @@
         <v>77</v>
       </c>
       <c r="I22" s="22">
-        <v>11.905756378895397</v>
+        <v>12.544644214678636</v>
       </c>
       <c r="J22" s="23" t="s">
         <v>77</v>
@@ -2474,20 +2459,20 @@
         <v>77</v>
       </c>
       <c r="P22" s="25">
-        <v>4324363</v>
+        <v>4575090</v>
       </c>
       <c r="Q22" s="25">
-        <v>5488099</v>
+        <v>5608678</v>
       </c>
       <c r="R22" s="25">
-        <v>350729</v>
+        <v>450881</v>
       </c>
       <c r="S22" s="25">
-        <v>530776</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+        <v>739097</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B25" s="60" t="s">
         <v>31</v>
       </c>
@@ -2510,30 +2495,30 @@
       <c r="S25" s="60"/>
       <c r="T25" s="59"/>
     </row>
-    <row r="26" spans="1:21" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="70" t="s">
+    <row r="26" spans="1:21" ht="45.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="71" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="70"/>
-      <c r="D26" s="70"/>
-      <c r="E26" s="70"/>
-      <c r="F26" s="70"/>
-      <c r="G26" s="70"/>
-      <c r="H26" s="70"/>
-      <c r="I26" s="70"/>
-      <c r="J26" s="70"/>
-      <c r="K26" s="70"/>
-      <c r="L26" s="70"/>
-      <c r="M26" s="70"/>
-      <c r="N26" s="70"/>
-      <c r="O26" s="70"/>
-      <c r="P26" s="70"/>
-      <c r="Q26" s="70"/>
-      <c r="R26" s="70"/>
-      <c r="S26" s="70"/>
-      <c r="T26" s="70"/>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C26" s="71"/>
+      <c r="D26" s="71"/>
+      <c r="E26" s="71"/>
+      <c r="F26" s="71"/>
+      <c r="G26" s="71"/>
+      <c r="H26" s="71"/>
+      <c r="I26" s="71"/>
+      <c r="J26" s="71"/>
+      <c r="K26" s="71"/>
+      <c r="L26" s="71"/>
+      <c r="M26" s="71"/>
+      <c r="N26" s="71"/>
+      <c r="O26" s="71"/>
+      <c r="P26" s="71"/>
+      <c r="Q26" s="71"/>
+      <c r="R26" s="71"/>
+      <c r="S26" s="71"/>
+      <c r="T26" s="71"/>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B27" s="61" t="s">
         <v>52</v>
       </c>
@@ -2557,7 +2542,7 @@
       <c r="T27" s="61"/>
       <c r="U27" s="61"/>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B28" s="61" t="s">
         <v>53</v>
       </c>
@@ -2581,35 +2566,35 @@
       <c r="T28" s="61"/>
       <c r="U28" s="61"/>
     </row>
-    <row r="29" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="70" t="s">
+    <row r="29" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="71" t="s">
         <v>71</v>
       </c>
-      <c r="C29" s="70"/>
-      <c r="D29" s="70"/>
-      <c r="E29" s="70"/>
-      <c r="F29" s="70"/>
-      <c r="G29" s="70"/>
-      <c r="H29" s="70"/>
-      <c r="I29" s="70"/>
-      <c r="J29" s="70"/>
-      <c r="K29" s="70"/>
-      <c r="L29" s="70"/>
-      <c r="M29" s="70"/>
-      <c r="N29" s="70"/>
-      <c r="O29" s="70"/>
-      <c r="P29" s="70"/>
-      <c r="Q29" s="70"/>
-      <c r="R29" s="70"/>
-      <c r="S29" s="70"/>
-      <c r="T29" s="70"/>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C29" s="71"/>
+      <c r="D29" s="71"/>
+      <c r="E29" s="71"/>
+      <c r="F29" s="71"/>
+      <c r="G29" s="71"/>
+      <c r="H29" s="71"/>
+      <c r="I29" s="71"/>
+      <c r="J29" s="71"/>
+      <c r="K29" s="71"/>
+      <c r="L29" s="71"/>
+      <c r="M29" s="71"/>
+      <c r="N29" s="71"/>
+      <c r="O29" s="71"/>
+      <c r="P29" s="71"/>
+      <c r="Q29" s="71"/>
+      <c r="R29" s="71"/>
+      <c r="S29" s="71"/>
+      <c r="T29" s="71"/>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B32" s="60"/>
     </row>
   </sheetData>
@@ -2640,129 +2625,129 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36246FF8-D917-43A6-8C76-62F6D1CA6D2E}">
   <dimension ref="A1:X31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" customWidth="1"/>
+    <col min="1" max="1" width="4.54296875" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A1" s="75" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="81" t="s">
+      <c r="B1" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="75" t="s">
+      <c r="C1" s="81" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="75" t="s">
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="81" t="s">
         <v>57</v>
       </c>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
-      <c r="W1" s="76"/>
-      <c r="X1" s="77"/>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="79"/>
-      <c r="B2" s="82"/>
-      <c r="C2" s="74" t="s">
+      <c r="O1" s="82"/>
+      <c r="P1" s="82"/>
+      <c r="Q1" s="82"/>
+      <c r="R1" s="82"/>
+      <c r="S1" s="82"/>
+      <c r="T1" s="82"/>
+      <c r="U1" s="82"/>
+      <c r="V1" s="82"/>
+      <c r="W1" s="82"/>
+      <c r="X1" s="83"/>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A2" s="76"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="84" t="s">
         <v>60</v>
       </c>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="75" t="s">
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="81" t="s">
         <v>58</v>
       </c>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="76"/>
-      <c r="L2" s="76"/>
-      <c r="M2" s="77"/>
-      <c r="N2" s="74" t="s">
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="82"/>
+      <c r="L2" s="82"/>
+      <c r="M2" s="83"/>
+      <c r="N2" s="84" t="s">
         <v>60</v>
       </c>
-      <c r="O2" s="74"/>
-      <c r="P2" s="74"/>
-      <c r="Q2" s="74"/>
-      <c r="R2" s="74"/>
-      <c r="S2" s="75" t="s">
+      <c r="O2" s="84"/>
+      <c r="P2" s="84"/>
+      <c r="Q2" s="84"/>
+      <c r="R2" s="84"/>
+      <c r="S2" s="81" t="s">
         <v>58</v>
       </c>
-      <c r="T2" s="76"/>
-      <c r="U2" s="76"/>
-      <c r="V2" s="76"/>
-      <c r="W2" s="76"/>
-      <c r="X2" s="77"/>
-    </row>
-    <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="79"/>
-      <c r="B3" s="82"/>
-      <c r="C3" s="74" t="s">
+      <c r="T2" s="82"/>
+      <c r="U2" s="82"/>
+      <c r="V2" s="82"/>
+      <c r="W2" s="82"/>
+      <c r="X2" s="83"/>
+    </row>
+    <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="76"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74" t="s">
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="75" t="s">
+      <c r="H3" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="76"/>
-      <c r="J3" s="76"/>
-      <c r="K3" s="77"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="83"/>
       <c r="L3" s="48"/>
-      <c r="M3" s="74" t="s">
+      <c r="M3" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="74" t="s">
+      <c r="N3" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="74"/>
-      <c r="P3" s="74"/>
-      <c r="Q3" s="74"/>
-      <c r="R3" s="74" t="s">
+      <c r="O3" s="84"/>
+      <c r="P3" s="84"/>
+      <c r="Q3" s="84"/>
+      <c r="R3" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="75" t="s">
+      <c r="S3" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="T3" s="76"/>
-      <c r="U3" s="76"/>
-      <c r="V3" s="76"/>
-      <c r="W3" s="77"/>
-      <c r="X3" s="74" t="s">
+      <c r="T3" s="82"/>
+      <c r="U3" s="82"/>
+      <c r="V3" s="82"/>
+      <c r="W3" s="83"/>
+      <c r="X3" s="84" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="80"/>
-      <c r="B4" s="83"/>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A4" s="77"/>
+      <c r="B4" s="80"/>
       <c r="C4" s="49" t="s">
         <v>15</v>
       </c>
@@ -2775,7 +2760,7 @@
       <c r="F4" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="74"/>
+      <c r="G4" s="84"/>
       <c r="H4" s="49" t="s">
         <v>15</v>
       </c>
@@ -2791,7 +2776,7 @@
       <c r="L4" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="M4" s="74"/>
+      <c r="M4" s="84"/>
       <c r="N4" s="49" t="s">
         <v>15</v>
       </c>
@@ -2804,7 +2789,7 @@
       <c r="Q4" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="R4" s="74"/>
+      <c r="R4" s="84"/>
       <c r="S4" s="49" t="s">
         <v>15</v>
       </c>
@@ -2820,9 +2805,9 @@
       <c r="W4" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="X4" s="74"/>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X4" s="84"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A5" s="50" t="s">
         <v>21</v>
       </c>
@@ -2830,73 +2815,73 @@
         <v>69</v>
       </c>
       <c r="C5" s="45">
-        <v>2945361</v>
+        <v>2972675</v>
       </c>
       <c r="D5" s="45">
-        <v>1860878</v>
+        <v>1880031</v>
       </c>
       <c r="E5" s="45">
-        <v>303497</v>
+        <v>310143</v>
       </c>
       <c r="F5" s="45">
-        <v>780986</v>
+        <v>782501</v>
       </c>
       <c r="G5" s="45">
-        <v>24234</v>
+        <v>26493</v>
       </c>
       <c r="H5" s="45">
-        <v>1192701</v>
+        <v>1220951</v>
       </c>
       <c r="I5" s="45">
-        <v>1009358</v>
+        <v>1029454</v>
       </c>
       <c r="J5" s="45">
-        <v>92222</v>
+        <v>95070</v>
       </c>
       <c r="K5" s="45">
-        <v>74135</v>
+        <v>77191</v>
       </c>
       <c r="L5" s="45">
-        <v>16986</v>
+        <v>19236</v>
       </c>
       <c r="M5" s="45">
-        <v>29157</v>
+        <v>27327</v>
       </c>
       <c r="N5" s="45">
-        <v>1183081</v>
+        <v>1227895</v>
       </c>
       <c r="O5" s="45">
-        <v>976442</v>
+        <v>1002838</v>
       </c>
       <c r="P5" s="45">
-        <v>327</v>
+        <v>346</v>
       </c>
       <c r="Q5" s="45">
-        <v>206312</v>
+        <v>224711</v>
       </c>
       <c r="R5" s="45">
-        <v>34600</v>
+        <v>44814</v>
       </c>
       <c r="S5" s="45">
-        <v>132668</v>
+        <v>174285</v>
       </c>
       <c r="T5" s="45">
-        <v>127692</v>
+        <v>168123</v>
       </c>
       <c r="U5" s="45">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="V5" s="45">
-        <v>4876</v>
+        <v>6031</v>
       </c>
       <c r="W5" s="45">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="X5" s="45">
-        <v>22679</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+        <v>41617</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A6" s="52" t="s">
         <v>22</v>
       </c>
@@ -2904,73 +2889,73 @@
         <v>0</v>
       </c>
       <c r="C6" s="46">
-        <v>3518352</v>
+        <v>3542266</v>
       </c>
       <c r="D6" s="46">
-        <v>2442872</v>
+        <v>2456634</v>
       </c>
       <c r="E6" s="46">
-        <v>350037</v>
+        <v>359691</v>
       </c>
       <c r="F6" s="46">
-        <v>725443</v>
+        <v>725941</v>
       </c>
       <c r="G6" s="46">
-        <v>41917</v>
+        <v>23914</v>
       </c>
       <c r="H6" s="46">
-        <v>1327905</v>
+        <v>1360120</v>
       </c>
       <c r="I6" s="46">
-        <v>1162392</v>
+        <v>1187749</v>
       </c>
       <c r="J6" s="46">
-        <v>105352</v>
+        <v>107885</v>
       </c>
       <c r="K6" s="46">
-        <v>56252</v>
+        <v>57837</v>
       </c>
       <c r="L6" s="46">
-        <v>3909</v>
+        <v>6649</v>
       </c>
       <c r="M6" s="46">
-        <v>22109</v>
+        <v>32215</v>
       </c>
       <c r="N6" s="46">
-        <v>1622117</v>
+        <v>1676609</v>
       </c>
       <c r="O6" s="46">
-        <v>1205568</v>
+        <v>1239550</v>
       </c>
       <c r="P6" s="46">
-        <v>446</v>
+        <v>475</v>
       </c>
       <c r="Q6" s="46">
-        <v>416103</v>
+        <v>436584</v>
       </c>
       <c r="R6" s="46">
-        <v>44265</v>
+        <v>54492</v>
       </c>
       <c r="S6" s="46">
-        <v>125063</v>
+        <v>181064</v>
       </c>
       <c r="T6" s="46">
-        <v>108586</v>
+        <v>162420</v>
       </c>
       <c r="U6" s="46">
-        <v>806</v>
+        <v>879</v>
       </c>
       <c r="V6" s="46">
-        <v>15667</v>
+        <v>17755</v>
       </c>
       <c r="W6" s="46">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="X6" s="46">
-        <v>27190</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+        <v>56001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A7" s="50">
         <v>11</v>
       </c>
@@ -2978,73 +2963,73 @@
         <v>2</v>
       </c>
       <c r="C7" s="45">
-        <v>867118</v>
+        <v>878552</v>
       </c>
       <c r="D7" s="45">
-        <v>580470</v>
+        <v>587557</v>
       </c>
       <c r="E7" s="45">
-        <v>100882</v>
+        <v>104996</v>
       </c>
       <c r="F7" s="45">
-        <v>185766</v>
+        <v>185999</v>
       </c>
       <c r="G7" s="45">
-        <v>13329</v>
+        <v>11434</v>
       </c>
       <c r="H7" s="45">
-        <v>451802</v>
+        <v>465183</v>
       </c>
       <c r="I7" s="45">
-        <v>393278</v>
+        <v>405325</v>
       </c>
       <c r="J7" s="45">
-        <v>53119</v>
+        <v>53511</v>
       </c>
       <c r="K7" s="45">
-        <v>1677</v>
+        <v>2594</v>
       </c>
       <c r="L7" s="45">
-        <v>3728</v>
+        <v>3753</v>
       </c>
       <c r="M7" s="45">
-        <v>12277</v>
+        <v>13381</v>
       </c>
       <c r="N7" s="45">
-        <v>416568</v>
+        <v>435188</v>
       </c>
       <c r="O7" s="45">
-        <v>305181</v>
+        <v>317843</v>
       </c>
       <c r="P7" s="45">
         <v>124</v>
       </c>
       <c r="Q7" s="45">
-        <v>111263</v>
+        <v>117221</v>
       </c>
       <c r="R7" s="45">
-        <v>15904</v>
+        <v>18620</v>
       </c>
       <c r="S7" s="45">
-        <v>40265</v>
+        <v>51964</v>
       </c>
       <c r="T7" s="45">
-        <v>33859</v>
+        <v>44796</v>
       </c>
       <c r="U7" s="45">
         <v>101</v>
       </c>
       <c r="V7" s="45">
-        <v>6305</v>
+        <v>7067</v>
       </c>
       <c r="W7" s="45">
         <v>0</v>
       </c>
       <c r="X7" s="45">
-        <v>6428</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+        <v>11699</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A8" s="52">
         <v>12</v>
       </c>
@@ -3052,73 +3037,73 @@
         <v>1</v>
       </c>
       <c r="C8" s="46">
-        <v>506615</v>
+        <v>510722</v>
       </c>
       <c r="D8" s="46">
-        <v>334782</v>
+        <v>338614</v>
       </c>
       <c r="E8" s="46">
-        <v>65011</v>
+        <v>65126</v>
       </c>
       <c r="F8" s="46">
-        <v>106822</v>
+        <v>106982</v>
       </c>
       <c r="G8" s="46">
-        <v>2072</v>
+        <v>3585</v>
       </c>
       <c r="H8" s="46">
-        <v>274097</v>
+        <v>282675</v>
       </c>
       <c r="I8" s="46">
-        <v>224969</v>
+        <v>228892</v>
       </c>
       <c r="J8" s="46">
-        <v>32233</v>
+        <v>35409</v>
       </c>
       <c r="K8" s="46">
-        <v>15556</v>
+        <v>16744</v>
       </c>
       <c r="L8" s="46">
-        <v>1339</v>
+        <v>1630</v>
       </c>
       <c r="M8" s="46">
-        <v>9184</v>
+        <v>8022</v>
       </c>
       <c r="N8" s="46">
-        <v>328332</v>
+        <v>340810</v>
       </c>
       <c r="O8" s="46">
-        <v>229765</v>
+        <v>237220</v>
       </c>
       <c r="P8" s="46">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="Q8" s="46">
-        <v>97973</v>
+        <v>102989</v>
       </c>
       <c r="R8" s="46">
-        <v>11321</v>
+        <v>12478</v>
       </c>
       <c r="S8" s="46">
-        <v>48331</v>
+        <v>56478</v>
       </c>
       <c r="T8" s="46">
-        <v>44232</v>
+        <v>51820</v>
       </c>
       <c r="U8" s="46">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="V8" s="46">
-        <v>4041</v>
+        <v>4588</v>
       </c>
       <c r="W8" s="46">
         <v>0</v>
       </c>
       <c r="X8" s="46">
-        <v>4740</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+        <v>8147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A9" s="50" t="s">
         <v>23</v>
       </c>
@@ -3126,73 +3111,73 @@
         <v>68</v>
       </c>
       <c r="C9" s="45">
-        <v>194779</v>
+        <v>196804</v>
       </c>
       <c r="D9" s="45">
-        <v>118769</v>
+        <v>120236</v>
       </c>
       <c r="E9" s="45">
-        <v>13532</v>
+        <v>13663</v>
       </c>
       <c r="F9" s="45">
-        <v>62478</v>
+        <v>62905</v>
       </c>
       <c r="G9" s="45">
-        <v>1303</v>
+        <v>2024</v>
       </c>
       <c r="H9" s="45">
-        <v>100221</v>
+        <v>102728</v>
       </c>
       <c r="I9" s="45">
-        <v>89129</v>
+        <v>90910</v>
       </c>
       <c r="J9" s="45">
-        <v>6832</v>
+        <v>7258</v>
       </c>
       <c r="K9" s="45">
-        <v>2655</v>
+        <v>2780</v>
       </c>
       <c r="L9" s="45">
-        <v>1605</v>
+        <v>1780</v>
       </c>
       <c r="M9" s="45">
-        <v>2463</v>
+        <v>2508</v>
       </c>
       <c r="N9" s="45">
-        <v>68473</v>
+        <v>71751</v>
       </c>
       <c r="O9" s="45">
-        <v>54998</v>
+        <v>56796</v>
       </c>
       <c r="P9" s="45">
         <v>14</v>
       </c>
       <c r="Q9" s="45">
-        <v>13461</v>
+        <v>14941</v>
       </c>
       <c r="R9" s="45">
-        <v>2625</v>
+        <v>3278</v>
       </c>
       <c r="S9" s="45">
-        <v>5481</v>
+        <v>7242</v>
       </c>
       <c r="T9" s="45">
-        <v>5229</v>
+        <v>6944</v>
       </c>
       <c r="U9" s="45">
         <v>18</v>
       </c>
       <c r="V9" s="45">
-        <v>234</v>
+        <v>280</v>
       </c>
       <c r="W9" s="45">
         <v>0</v>
       </c>
       <c r="X9" s="45">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A10" s="52" t="s">
         <v>24</v>
       </c>
@@ -3200,73 +3185,73 @@
         <v>3</v>
       </c>
       <c r="C10" s="46">
-        <v>504549</v>
+        <v>505100</v>
       </c>
       <c r="D10" s="46">
-        <v>323855</v>
+        <v>323987</v>
       </c>
       <c r="E10" s="46">
-        <v>60228</v>
+        <v>60623</v>
       </c>
       <c r="F10" s="46">
-        <v>120466</v>
+        <v>120490</v>
       </c>
       <c r="G10" s="46">
-        <v>1847</v>
+        <v>303</v>
       </c>
       <c r="H10" s="46">
-        <v>193039</v>
+        <v>201543</v>
       </c>
       <c r="I10" s="46">
-        <v>175034</v>
+        <v>181210</v>
       </c>
       <c r="J10" s="46">
-        <v>14394</v>
+        <v>16413</v>
       </c>
       <c r="K10" s="46">
-        <v>2497</v>
+        <v>2800</v>
       </c>
       <c r="L10" s="46">
-        <v>1114</v>
+        <v>1120</v>
       </c>
       <c r="M10" s="46">
-        <v>7149</v>
+        <v>8014</v>
       </c>
       <c r="N10" s="46">
-        <v>176538</v>
+        <v>183414</v>
       </c>
       <c r="O10" s="46">
-        <v>141238</v>
+        <v>145346</v>
       </c>
       <c r="P10" s="46">
-        <v>2505</v>
+        <v>2729</v>
       </c>
       <c r="Q10" s="46">
-        <v>32795</v>
+        <v>35339</v>
       </c>
       <c r="R10" s="46">
-        <v>5395</v>
+        <v>6876</v>
       </c>
       <c r="S10" s="46">
-        <v>12180</v>
+        <v>16992</v>
       </c>
       <c r="T10" s="46">
-        <v>11196</v>
+        <v>15812</v>
       </c>
       <c r="U10" s="46">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="V10" s="46">
-        <v>963</v>
+        <v>1129</v>
       </c>
       <c r="W10" s="46">
         <v>0</v>
       </c>
       <c r="X10" s="46">
-        <v>2114</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+        <v>4812</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A11" s="50" t="s">
         <v>25</v>
       </c>
@@ -3274,73 +3259,73 @@
         <v>11</v>
       </c>
       <c r="C11" s="45">
-        <v>1723983</v>
+        <v>1740397</v>
       </c>
       <c r="D11" s="45">
-        <v>1069287</v>
+        <v>1080669</v>
       </c>
       <c r="E11" s="45">
-        <v>188029</v>
+        <v>192849</v>
       </c>
       <c r="F11" s="45">
-        <v>466667</v>
+        <v>466879</v>
       </c>
       <c r="G11" s="45">
-        <v>18008</v>
+        <v>16185</v>
       </c>
       <c r="H11" s="45">
-        <v>612970</v>
+        <v>621799</v>
       </c>
       <c r="I11" s="45">
-        <v>536314</v>
+        <v>542000</v>
       </c>
       <c r="J11" s="45">
-        <v>36984</v>
+        <v>38852</v>
       </c>
       <c r="K11" s="45">
-        <v>39432</v>
+        <v>40252</v>
       </c>
       <c r="L11" s="45">
-        <v>240</v>
+        <v>695</v>
       </c>
       <c r="M11" s="45">
-        <v>8771</v>
+        <v>8780</v>
       </c>
       <c r="N11" s="45">
-        <v>671267</v>
+        <v>701532</v>
       </c>
       <c r="O11" s="45">
-        <v>525434</v>
+        <v>544962</v>
       </c>
       <c r="P11" s="45">
         <v>163</v>
       </c>
       <c r="Q11" s="45">
-        <v>145670</v>
+        <v>156407</v>
       </c>
       <c r="R11" s="45">
-        <v>19718</v>
+        <v>30265</v>
       </c>
       <c r="S11" s="45">
-        <v>55939</v>
+        <v>79360</v>
       </c>
       <c r="T11" s="45">
-        <v>51218</v>
+        <v>73954</v>
       </c>
       <c r="U11" s="45">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="V11" s="45">
-        <v>4552</v>
+        <v>5223</v>
       </c>
       <c r="W11" s="45">
         <v>43</v>
       </c>
       <c r="X11" s="45">
-        <v>10051</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+        <v>23421</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A12" s="52">
         <v>13</v>
       </c>
@@ -3348,73 +3333,73 @@
         <v>4</v>
       </c>
       <c r="C12" s="46">
-        <v>395224</v>
+        <v>398582</v>
       </c>
       <c r="D12" s="46">
-        <v>281696</v>
+        <v>283327</v>
       </c>
       <c r="E12" s="46">
-        <v>47663</v>
+        <v>49139</v>
       </c>
       <c r="F12" s="46">
-        <v>65865</v>
+        <v>66116</v>
       </c>
       <c r="G12" s="46">
-        <v>4059</v>
+        <v>3228</v>
       </c>
       <c r="H12" s="46">
-        <v>154653</v>
+        <v>159694</v>
       </c>
       <c r="I12" s="46">
-        <v>138780</v>
+        <v>141846</v>
       </c>
       <c r="J12" s="46">
-        <v>12819</v>
+        <v>14265</v>
       </c>
       <c r="K12" s="46">
-        <v>1566</v>
+        <v>1846</v>
       </c>
       <c r="L12" s="46">
-        <v>1488</v>
+        <v>1737</v>
       </c>
       <c r="M12" s="46">
-        <v>4130</v>
+        <v>4859</v>
       </c>
       <c r="N12" s="46">
-        <v>247556</v>
+        <v>254341</v>
       </c>
       <c r="O12" s="46">
-        <v>184695</v>
+        <v>189915</v>
       </c>
       <c r="P12" s="46">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="Q12" s="46">
-        <v>62759</v>
+        <v>64318</v>
       </c>
       <c r="R12" s="46">
-        <v>5658</v>
+        <v>6785</v>
       </c>
       <c r="S12" s="46">
-        <v>24598</v>
+        <v>31897</v>
       </c>
       <c r="T12" s="46">
-        <v>21704</v>
+        <v>28644</v>
       </c>
       <c r="U12" s="46">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="V12" s="46">
-        <v>2841</v>
+        <v>3199</v>
       </c>
       <c r="W12" s="46">
         <v>5</v>
       </c>
       <c r="X12" s="46">
-        <v>3695</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+        <v>7299</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A13" s="50" t="s">
         <v>26</v>
       </c>
@@ -3422,73 +3407,73 @@
         <v>5</v>
       </c>
       <c r="C13" s="45">
-        <v>2165272</v>
+        <v>2179925</v>
       </c>
       <c r="D13" s="45">
-        <v>1301888</v>
+        <v>1313389</v>
       </c>
       <c r="E13" s="45">
-        <v>204263</v>
+        <v>205337</v>
       </c>
       <c r="F13" s="45">
-        <v>659121</v>
+        <v>661199</v>
       </c>
       <c r="G13" s="45">
-        <v>15079</v>
+        <v>12838</v>
       </c>
       <c r="H13" s="45">
-        <v>751512</v>
+        <v>781242</v>
       </c>
       <c r="I13" s="45">
-        <v>651462</v>
+        <v>668994</v>
       </c>
       <c r="J13" s="45">
-        <v>65124</v>
+        <v>69340</v>
       </c>
       <c r="K13" s="45">
-        <v>19836</v>
+        <v>20858</v>
       </c>
       <c r="L13" s="45">
-        <v>15090</v>
+        <v>22050</v>
       </c>
       <c r="M13" s="45">
-        <v>22374</v>
+        <v>22729</v>
       </c>
       <c r="N13" s="45">
-        <v>960194</v>
+        <v>1000071</v>
       </c>
       <c r="O13" s="45">
-        <v>729375</v>
+        <v>751199</v>
       </c>
       <c r="P13" s="45">
-        <v>591</v>
+        <v>609</v>
       </c>
       <c r="Q13" s="45">
-        <v>230228</v>
+        <v>248263</v>
       </c>
       <c r="R13" s="45">
-        <v>27501</v>
+        <v>39877</v>
       </c>
       <c r="S13" s="45">
-        <v>61874</v>
+        <v>93674</v>
       </c>
       <c r="T13" s="45">
-        <v>53257</v>
+        <v>83742</v>
       </c>
       <c r="U13" s="45">
         <v>478</v>
       </c>
       <c r="V13" s="45">
-        <v>8116</v>
+        <v>9420</v>
       </c>
       <c r="W13" s="45">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="X13" s="45">
-        <v>11579</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+        <v>31800</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A14" s="52" t="s">
         <v>27</v>
       </c>
@@ -3496,73 +3481,73 @@
         <v>67</v>
       </c>
       <c r="C14" s="46">
-        <v>4842090</v>
+        <v>4883940</v>
       </c>
       <c r="D14" s="46">
-        <v>3262970</v>
+        <v>3291339</v>
       </c>
       <c r="E14" s="46">
-        <v>432060</v>
+        <v>445018</v>
       </c>
       <c r="F14" s="46">
-        <v>1147060</v>
+        <v>1147583</v>
       </c>
       <c r="G14" s="46">
-        <v>39781</v>
+        <v>35346</v>
       </c>
       <c r="H14" s="46">
-        <v>1821721</v>
+        <v>1861727</v>
       </c>
       <c r="I14" s="46">
-        <v>1660611</v>
+        <v>1694605</v>
       </c>
       <c r="J14" s="46">
-        <v>120267</v>
+        <v>124011</v>
       </c>
       <c r="K14" s="46">
-        <v>34326</v>
+        <v>35967</v>
       </c>
       <c r="L14" s="46">
-        <v>6517</v>
+        <v>7144</v>
       </c>
       <c r="M14" s="46">
-        <v>23334</v>
+        <v>29193</v>
       </c>
       <c r="N14" s="46">
-        <v>2378438</v>
+        <v>2475883</v>
       </c>
       <c r="O14" s="46">
-        <v>1719895</v>
+        <v>1773300</v>
       </c>
       <c r="P14" s="46">
-        <v>6363</v>
+        <v>6414</v>
       </c>
       <c r="Q14" s="46">
-        <v>652180</v>
+        <v>696169</v>
       </c>
       <c r="R14" s="46">
-        <v>76312</v>
+        <v>97445</v>
       </c>
       <c r="S14" s="46">
-        <v>159148</v>
+        <v>232067</v>
       </c>
       <c r="T14" s="46">
-        <v>139132</v>
+        <v>208575</v>
       </c>
       <c r="U14" s="46">
-        <v>1495</v>
+        <v>1717</v>
       </c>
       <c r="V14" s="46">
-        <v>18295</v>
+        <v>21503</v>
       </c>
       <c r="W14" s="46">
-        <v>226</v>
+        <v>272</v>
       </c>
       <c r="X14" s="46">
-        <v>33034</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+        <v>72919</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A15" s="50" t="s">
         <v>28</v>
       </c>
@@ -3570,73 +3555,73 @@
         <v>9</v>
       </c>
       <c r="C15" s="45">
-        <v>1026197</v>
+        <v>1033969</v>
       </c>
       <c r="D15" s="45">
-        <v>670547</v>
+        <v>675115</v>
       </c>
       <c r="E15" s="45">
-        <v>91615</v>
+        <v>94766</v>
       </c>
       <c r="F15" s="45">
-        <v>264035</v>
+        <v>264088</v>
       </c>
       <c r="G15" s="45">
-        <v>10442</v>
+        <v>6562</v>
       </c>
       <c r="H15" s="45">
-        <v>510747</v>
+        <v>521454</v>
       </c>
       <c r="I15" s="45">
-        <v>442439</v>
+        <v>451779</v>
       </c>
       <c r="J15" s="45">
-        <v>39005</v>
+        <v>39557</v>
       </c>
       <c r="K15" s="45">
-        <v>29303</v>
+        <v>30118</v>
       </c>
       <c r="L15" s="45">
         <v>0</v>
       </c>
       <c r="M15" s="45">
-        <v>8307</v>
+        <v>9288</v>
       </c>
       <c r="N15" s="45">
-        <v>461057</v>
+        <v>482794</v>
       </c>
       <c r="O15" s="45">
-        <v>367298</v>
+        <v>380584</v>
       </c>
       <c r="P15" s="45">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="Q15" s="45">
-        <v>93556</v>
+        <v>101997</v>
       </c>
       <c r="R15" s="45">
-        <v>15608</v>
+        <v>21737</v>
       </c>
       <c r="S15" s="45">
-        <v>44822</v>
+        <v>60050</v>
       </c>
       <c r="T15" s="45">
-        <v>43614</v>
+        <v>58597</v>
       </c>
       <c r="U15" s="45">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="V15" s="45">
-        <v>1139</v>
+        <v>1364</v>
       </c>
       <c r="W15" s="45">
         <v>0</v>
       </c>
       <c r="X15" s="45">
-        <v>7880</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+        <v>15228</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A16" s="52">
         <v>10</v>
       </c>
@@ -3644,73 +3629,73 @@
         <v>10</v>
       </c>
       <c r="C16" s="46">
-        <v>299097</v>
+        <v>300136</v>
       </c>
       <c r="D16" s="46">
-        <v>227444</v>
+        <v>228177</v>
       </c>
       <c r="E16" s="46">
-        <v>29581</v>
+        <v>29882</v>
       </c>
       <c r="F16" s="46">
-        <v>42072</v>
+        <v>42077</v>
       </c>
       <c r="G16" s="46">
-        <v>1665</v>
+        <v>997</v>
       </c>
       <c r="H16" s="46">
-        <v>115449</v>
+        <v>120379</v>
       </c>
       <c r="I16" s="46">
-        <v>101009</v>
+        <v>105120</v>
       </c>
       <c r="J16" s="46">
-        <v>10488</v>
+        <v>11213</v>
       </c>
       <c r="K16" s="46">
-        <v>3952</v>
+        <v>4046</v>
       </c>
       <c r="L16" s="46">
         <v>0</v>
       </c>
       <c r="M16" s="46">
-        <v>4140</v>
+        <v>4718</v>
       </c>
       <c r="N16" s="46">
-        <v>119809</v>
+        <v>124305</v>
       </c>
       <c r="O16" s="46">
-        <v>96459</v>
+        <v>98963</v>
       </c>
       <c r="P16" s="46">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="Q16" s="46">
-        <v>23271</v>
+        <v>25257</v>
       </c>
       <c r="R16" s="46">
-        <v>4650</v>
+        <v>4496</v>
       </c>
       <c r="S16" s="46">
-        <v>10625</v>
+        <v>14980</v>
       </c>
       <c r="T16" s="46">
-        <v>9587</v>
+        <v>13812</v>
       </c>
       <c r="U16" s="46">
         <v>0</v>
       </c>
       <c r="V16" s="46">
-        <v>1032</v>
+        <v>1162</v>
       </c>
       <c r="W16" s="46">
         <v>6</v>
       </c>
       <c r="X16" s="46">
-        <v>2390</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+        <v>4355</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A17" s="50">
         <v>14</v>
       </c>
@@ -3718,73 +3703,73 @@
         <v>6</v>
       </c>
       <c r="C17" s="45">
-        <v>952230</v>
+        <v>963858</v>
       </c>
       <c r="D17" s="45">
-        <v>663398</v>
+        <v>665703</v>
       </c>
       <c r="E17" s="45">
-        <v>106023</v>
+        <v>114903</v>
       </c>
       <c r="F17" s="45">
-        <v>182809</v>
+        <v>183252</v>
       </c>
       <c r="G17" s="45">
-        <v>14482</v>
+        <v>11628</v>
       </c>
       <c r="H17" s="45">
-        <v>560918</v>
+        <v>570628</v>
       </c>
       <c r="I17" s="45">
-        <v>510366</v>
+        <v>515266</v>
       </c>
       <c r="J17" s="45">
-        <v>44449</v>
+        <v>47351</v>
       </c>
       <c r="K17" s="45">
-        <v>4282</v>
+        <v>4935</v>
       </c>
       <c r="L17" s="45">
-        <v>1821</v>
+        <v>3076</v>
       </c>
       <c r="M17" s="45">
-        <v>7463</v>
+        <v>9710</v>
       </c>
       <c r="N17" s="45">
-        <v>391335</v>
+        <v>405477</v>
       </c>
       <c r="O17" s="45">
-        <v>285231</v>
+        <v>295153</v>
       </c>
       <c r="P17" s="45">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="Q17" s="45">
-        <v>105930</v>
+        <v>110139</v>
       </c>
       <c r="R17" s="45">
-        <v>10471</v>
+        <v>14142</v>
       </c>
       <c r="S17" s="45">
-        <v>76798</v>
+        <v>92224</v>
       </c>
       <c r="T17" s="45">
-        <v>74168</v>
+        <v>88963</v>
       </c>
       <c r="U17" s="45">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="V17" s="45">
-        <v>2528</v>
+        <v>3142</v>
       </c>
       <c r="W17" s="45">
         <v>38</v>
       </c>
       <c r="X17" s="45">
-        <v>8180</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+        <v>15426</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A18" s="52">
         <v>15</v>
       </c>
@@ -3792,73 +3777,73 @@
         <v>7</v>
       </c>
       <c r="C18" s="47">
-        <v>555032</v>
+        <v>562403</v>
       </c>
       <c r="D18" s="47">
-        <v>367859</v>
+        <v>371956</v>
       </c>
       <c r="E18" s="47">
-        <v>56945</v>
+        <v>60219</v>
       </c>
       <c r="F18" s="47">
         <v>130228</v>
       </c>
       <c r="G18" s="47">
-        <v>4824</v>
+        <v>7371</v>
       </c>
       <c r="H18" s="47">
-        <v>242891</v>
+        <v>247723</v>
       </c>
       <c r="I18" s="47">
-        <v>201118</v>
+        <v>204963</v>
       </c>
       <c r="J18" s="47">
-        <v>30749</v>
+        <v>31366</v>
       </c>
       <c r="K18" s="47">
-        <v>7413</v>
+        <v>7624</v>
       </c>
       <c r="L18" s="47">
-        <v>3611</v>
+        <v>3770</v>
       </c>
       <c r="M18" s="47">
-        <v>6227</v>
+        <v>4832</v>
       </c>
       <c r="N18" s="46">
-        <v>240957</v>
+        <v>249163</v>
       </c>
       <c r="O18" s="46">
-        <v>199523</v>
+        <v>205443</v>
       </c>
       <c r="P18" s="46">
         <v>40</v>
       </c>
       <c r="Q18" s="46">
-        <v>41394</v>
+        <v>43680</v>
       </c>
       <c r="R18" s="46">
-        <v>6125</v>
+        <v>8206</v>
       </c>
       <c r="S18" s="46">
-        <v>20980</v>
+        <v>27964</v>
       </c>
       <c r="T18" s="46">
-        <v>19324</v>
+        <v>26003</v>
       </c>
       <c r="U18" s="46">
         <v>48</v>
       </c>
       <c r="V18" s="46">
-        <v>1608</v>
+        <v>1913</v>
       </c>
       <c r="W18" s="46">
         <v>0</v>
       </c>
       <c r="X18" s="46">
-        <v>3214</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+        <v>6984</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A19" s="50" t="s">
         <v>29</v>
       </c>
@@ -3866,43 +3851,43 @@
         <v>8</v>
       </c>
       <c r="C19" s="45">
-        <v>674124</v>
+        <v>679991</v>
       </c>
       <c r="D19" s="45">
-        <v>468244</v>
+        <v>472460</v>
       </c>
       <c r="E19" s="45">
-        <v>60583</v>
+        <v>62218</v>
       </c>
       <c r="F19" s="45">
-        <v>145297</v>
+        <v>145313</v>
       </c>
       <c r="G19" s="45">
-        <v>6040</v>
+        <v>6252</v>
       </c>
       <c r="H19" s="45">
-        <v>387992</v>
+        <v>398193</v>
       </c>
       <c r="I19" s="45">
-        <v>331166</v>
+        <v>337184</v>
       </c>
       <c r="J19" s="45">
-        <v>36941</v>
+        <v>37859</v>
       </c>
       <c r="K19" s="45">
-        <v>18083</v>
+        <v>19397</v>
       </c>
       <c r="L19" s="45">
-        <v>1802</v>
+        <v>3753</v>
       </c>
       <c r="M19" s="45">
-        <v>9026</v>
+        <v>9835</v>
       </c>
       <c r="N19" s="45">
-        <v>359576</v>
+        <v>359651</v>
       </c>
       <c r="O19" s="45">
-        <v>272073</v>
+        <v>272148</v>
       </c>
       <c r="P19" s="45">
         <v>2641</v>
@@ -3911,13 +3896,13 @@
         <v>84862</v>
       </c>
       <c r="R19" s="45">
-        <v>13572</v>
+        <v>75</v>
       </c>
       <c r="S19" s="45">
-        <v>30843</v>
+        <v>30882</v>
       </c>
       <c r="T19" s="45">
-        <v>28727</v>
+        <v>28766</v>
       </c>
       <c r="U19" s="45">
         <v>396</v>
@@ -3929,10 +3914,10 @@
         <v>0</v>
       </c>
       <c r="X19" s="45">
-        <v>4869</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A20" s="52">
         <v>16</v>
       </c>
@@ -3940,109 +3925,109 @@
         <v>70</v>
       </c>
       <c r="C20" s="47">
-        <v>530478</v>
+        <v>539909</v>
       </c>
       <c r="D20" s="47">
-        <v>359463</v>
+        <v>364761</v>
       </c>
       <c r="E20" s="47">
-        <v>61959</v>
+        <v>66093</v>
       </c>
       <c r="F20" s="47">
-        <v>109056</v>
+        <v>109055</v>
       </c>
       <c r="G20" s="47">
-        <v>6798</v>
+        <v>8555</v>
       </c>
       <c r="H20" s="47">
-        <v>302604</v>
+        <v>304897</v>
       </c>
       <c r="I20" s="47">
-        <v>281501</v>
+        <v>283684</v>
       </c>
       <c r="J20" s="47">
-        <v>19982</v>
+        <v>20043</v>
       </c>
       <c r="K20" s="47">
-        <v>1000</v>
+        <v>1049</v>
       </c>
       <c r="L20" s="47">
         <v>121</v>
       </c>
       <c r="M20" s="47">
-        <v>2292</v>
+        <v>1744</v>
       </c>
       <c r="N20" s="47">
-        <v>209832</v>
+        <v>217551</v>
       </c>
       <c r="O20" s="46">
-        <v>173450</v>
+        <v>178638</v>
       </c>
       <c r="P20" s="46">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q20" s="46">
-        <v>36288</v>
+        <v>38818</v>
       </c>
       <c r="R20" s="46">
-        <v>6315</v>
+        <v>7719</v>
       </c>
       <c r="S20" s="46">
-        <v>32048</v>
+        <v>39013</v>
       </c>
       <c r="T20" s="46">
-        <v>27006</v>
+        <v>33111</v>
       </c>
       <c r="U20" s="46">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="V20" s="46">
-        <v>5028</v>
+        <v>5883</v>
       </c>
       <c r="W20" s="46">
         <v>10</v>
       </c>
       <c r="X20" s="46">
-        <v>5919</v>
-      </c>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+        <v>6965</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A21" s="50"/>
       <c r="B21" s="51" t="s">
         <v>46</v>
       </c>
       <c r="C21" s="45">
-        <v>80592</v>
+        <v>82972</v>
       </c>
       <c r="D21" s="45">
-        <v>2269</v>
+        <v>3113</v>
       </c>
       <c r="E21" s="45">
-        <v>60373</v>
+        <v>61830</v>
       </c>
       <c r="F21" s="45">
-        <v>17950</v>
+        <v>18029</v>
       </c>
       <c r="G21" s="45">
-        <v>2191</v>
+        <v>2356</v>
       </c>
       <c r="H21" s="45">
-        <v>18741</v>
+        <v>21896</v>
       </c>
       <c r="I21" s="55">
-        <v>393</v>
+        <v>685</v>
       </c>
       <c r="J21" s="55">
-        <v>14847</v>
+        <v>17091</v>
       </c>
       <c r="K21" s="55">
-        <v>721</v>
+        <v>843</v>
       </c>
       <c r="L21" s="55">
-        <v>2780</v>
+        <v>3277</v>
       </c>
       <c r="M21" s="55">
-        <v>2500</v>
+        <v>3057</v>
       </c>
       <c r="N21" s="56" t="s">
         <v>77</v>
@@ -4076,121 +4061,121 @@
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="57"/>
       <c r="B22" s="58" t="s">
         <v>15</v>
       </c>
       <c r="C22" s="57">
-        <v>21781093</v>
+        <v>21972201</v>
       </c>
       <c r="D22" s="57">
-        <v>14336691</v>
+        <v>14457068</v>
       </c>
       <c r="E22" s="57">
-        <v>2232281</v>
+        <v>2296496</v>
       </c>
       <c r="F22" s="57">
-        <v>5212121</v>
+        <v>5218637</v>
       </c>
       <c r="G22" s="57">
-        <v>208071</v>
+        <v>179071</v>
       </c>
       <c r="H22" s="57">
-        <v>9019963</v>
+        <v>9242832</v>
       </c>
       <c r="I22" s="57">
-        <v>7909319</v>
+        <v>8069666</v>
       </c>
       <c r="J22" s="57">
-        <v>735807</v>
+        <v>766494</v>
       </c>
       <c r="K22" s="57">
-        <v>312686</v>
+        <v>326881</v>
       </c>
       <c r="L22" s="57">
-        <v>62151</v>
+        <v>79791</v>
       </c>
       <c r="M22" s="57">
-        <v>180903</v>
+        <v>200212</v>
       </c>
       <c r="N22" s="57">
-        <v>9835130</v>
+        <v>10206435</v>
       </c>
       <c r="O22" s="57">
-        <v>7466625</v>
+        <v>7689898</v>
       </c>
       <c r="P22" s="57">
-        <v>14460</v>
+        <v>14842</v>
       </c>
       <c r="Q22" s="57">
-        <v>2354045</v>
+        <v>2501695</v>
       </c>
       <c r="R22" s="57">
-        <v>300040</v>
+        <v>371305</v>
       </c>
       <c r="S22" s="57">
-        <v>881663</v>
+        <v>1190136</v>
       </c>
       <c r="T22" s="57">
-        <v>798531</v>
+        <v>1094082</v>
       </c>
       <c r="U22" s="57">
-        <v>3775</v>
+        <v>4190</v>
       </c>
       <c r="V22" s="57">
-        <v>78945</v>
+        <v>91379</v>
       </c>
       <c r="W22" s="57">
-        <v>412</v>
+        <v>485</v>
       </c>
       <c r="X22" s="57">
-        <v>154964</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>308473</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="25" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B25" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B26" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:24" s="4" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="70" t="s">
+    <row r="27" spans="1:24" s="4" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="71" t="s">
         <v>66</v>
       </c>
-      <c r="C27" s="70"/>
-      <c r="D27" s="70"/>
-      <c r="E27" s="70"/>
-      <c r="F27" s="70"/>
-      <c r="G27" s="70"/>
-      <c r="H27" s="70"/>
-      <c r="I27" s="70"/>
-      <c r="J27" s="70"/>
-      <c r="K27" s="70"/>
-      <c r="L27" s="70"/>
-      <c r="M27" s="70"/>
-      <c r="N27" s="70"/>
-      <c r="O27" s="70"/>
-      <c r="P27" s="70"/>
-      <c r="Q27" s="70"/>
-      <c r="R27" s="70"/>
-      <c r="S27" s="70"/>
-      <c r="T27" s="70"/>
-      <c r="U27" s="70"/>
-      <c r="V27" s="70"/>
+      <c r="C27" s="71"/>
+      <c r="D27" s="71"/>
+      <c r="E27" s="71"/>
+      <c r="F27" s="71"/>
+      <c r="G27" s="71"/>
+      <c r="H27" s="71"/>
+      <c r="I27" s="71"/>
+      <c r="J27" s="71"/>
+      <c r="K27" s="71"/>
+      <c r="L27" s="71"/>
+      <c r="M27" s="71"/>
+      <c r="N27" s="71"/>
+      <c r="O27" s="71"/>
+      <c r="P27" s="71"/>
+      <c r="Q27" s="71"/>
+      <c r="R27" s="71"/>
+      <c r="S27" s="71"/>
+      <c r="T27" s="71"/>
+      <c r="U27" s="71"/>
+      <c r="V27" s="71"/>
       <c r="W27" s="62"/>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="60"/>
       <c r="C30" s="60"/>
       <c r="D30" s="60"/>
@@ -4211,7 +4196,7 @@
       <c r="S30" s="60"/>
       <c r="T30" s="60"/>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B31" s="60"/>
       <c r="C31" s="60"/>
       <c r="D31" s="60"/>
@@ -4234,6 +4219,8 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="S3:W3"/>
+    <mergeCell ref="B27:V27"/>
     <mergeCell ref="A1:A4"/>
     <mergeCell ref="B1:B4"/>
     <mergeCell ref="C1:M1"/>
@@ -4249,8 +4236,6 @@
     <mergeCell ref="M3:M4"/>
     <mergeCell ref="N3:Q3"/>
     <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:W3"/>
-    <mergeCell ref="B27:V27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4258,310 +4243,325 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FD2E263-4F37-4CCD-9472-109108C9F925}">
-  <dimension ref="A1:E149"/>
+  <dimension ref="A1:D149"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="3" width="15.140625" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A1" s="84" t="s">
+    <row r="1" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="85" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="84" t="s">
+      <c r="B1" s="85" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="84" t="s">
+      <c r="C1" s="85" t="s">
         <v>80</v>
       </c>
-      <c r="D1" s="66" t="s">
+      <c r="D1" s="67" t="s">
         <v>81</v>
       </c>
-      <c r="E1" s="85"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="86">
         <v>44192</v>
       </c>
       <c r="B2" s="45">
         <v>24073</v>
       </c>
-      <c r="C2" s="87"/>
+      <c r="C2" s="45">
+        <v>0</v>
+      </c>
       <c r="D2" s="45">
         <v>24073</v>
       </c>
-      <c r="E2" s="85"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="88">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="87">
         <v>44193</v>
       </c>
       <c r="B3" s="46">
         <v>18523</v>
       </c>
-      <c r="C3" s="89"/>
+      <c r="C3" s="46">
+        <v>0</v>
+      </c>
       <c r="D3" s="46">
         <v>18523</v>
       </c>
-      <c r="E3" s="85"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="86">
         <v>44194</v>
       </c>
       <c r="B4" s="45">
-        <v>50095</v>
-      </c>
-      <c r="C4" s="87"/>
+        <v>50094</v>
+      </c>
+      <c r="C4" s="45">
+        <v>0</v>
+      </c>
       <c r="D4" s="45">
-        <v>50095</v>
-      </c>
-      <c r="E4" s="85"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="88">
+        <v>50094</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="87">
         <v>44195</v>
       </c>
       <c r="B5" s="46">
         <v>62661</v>
       </c>
-      <c r="C5" s="89"/>
+      <c r="C5" s="46">
+        <v>0</v>
+      </c>
       <c r="D5" s="46">
         <v>62661</v>
       </c>
-      <c r="E5" s="85"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="86">
         <v>44196</v>
       </c>
       <c r="B6" s="45">
         <v>50042</v>
       </c>
-      <c r="C6" s="87"/>
+      <c r="C6" s="45">
+        <v>0</v>
+      </c>
       <c r="D6" s="45">
         <v>50042</v>
       </c>
-      <c r="E6" s="85"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="88">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="87">
         <v>44197</v>
       </c>
       <c r="B7" s="46">
         <v>18927</v>
       </c>
-      <c r="C7" s="89"/>
+      <c r="C7" s="46">
+        <v>0</v>
+      </c>
       <c r="D7" s="46">
         <v>18927</v>
       </c>
-      <c r="E7" s="85"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="86">
         <v>44198</v>
       </c>
       <c r="B8" s="45">
-        <v>52255</v>
-      </c>
-      <c r="C8" s="87"/>
+        <v>52254</v>
+      </c>
+      <c r="C8" s="45">
+        <v>0</v>
+      </c>
       <c r="D8" s="45">
-        <v>52255</v>
-      </c>
-      <c r="E8" s="85"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="88">
+        <v>52254</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="87">
         <v>44199</v>
       </c>
       <c r="B9" s="46">
         <v>23894</v>
       </c>
-      <c r="C9" s="89"/>
+      <c r="C9" s="46">
+        <v>0</v>
+      </c>
       <c r="D9" s="46">
         <v>23894</v>
       </c>
-      <c r="E9" s="85"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="86">
         <v>44200</v>
       </c>
       <c r="B10" s="45">
-        <v>48124</v>
-      </c>
-      <c r="C10" s="87"/>
+        <v>48123</v>
+      </c>
+      <c r="C10" s="45">
+        <v>0</v>
+      </c>
       <c r="D10" s="45">
-        <v>48124</v>
-      </c>
-      <c r="E10" s="85"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="88">
+        <v>48123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="87">
         <v>44201</v>
       </c>
       <c r="B11" s="46">
         <v>53739</v>
       </c>
-      <c r="C11" s="89"/>
+      <c r="C11" s="46">
+        <v>0</v>
+      </c>
       <c r="D11" s="46">
         <v>53739</v>
       </c>
-      <c r="E11" s="85"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="86">
         <v>44202</v>
       </c>
       <c r="B12" s="45">
-        <v>62663</v>
-      </c>
-      <c r="C12" s="87"/>
+        <v>62661</v>
+      </c>
+      <c r="C12" s="45">
+        <v>0</v>
+      </c>
       <c r="D12" s="45">
-        <v>62663</v>
-      </c>
-      <c r="E12" s="85"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="88">
+        <v>62661</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="87">
         <v>44203</v>
       </c>
       <c r="B13" s="46">
-        <v>56079</v>
-      </c>
-      <c r="C13" s="89"/>
+        <v>56077</v>
+      </c>
+      <c r="C13" s="46">
+        <v>0</v>
+      </c>
       <c r="D13" s="46">
-        <v>56079</v>
-      </c>
-      <c r="E13" s="85"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>56077</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="86">
         <v>44204</v>
       </c>
       <c r="B14" s="45">
-        <v>62734</v>
-      </c>
-      <c r="C14" s="87"/>
+        <v>62733</v>
+      </c>
+      <c r="C14" s="45">
+        <v>0</v>
+      </c>
       <c r="D14" s="45">
-        <v>62734</v>
-      </c>
-      <c r="E14" s="85"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="90">
+        <v>62733</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="88">
         <v>44205</v>
       </c>
       <c r="B15" s="47">
         <v>61392</v>
       </c>
-      <c r="C15" s="91"/>
+      <c r="C15" s="47">
+        <v>0</v>
+      </c>
       <c r="D15" s="47">
         <v>61392</v>
       </c>
-      <c r="E15" s="85"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="86">
         <v>44206</v>
       </c>
       <c r="B16" s="45">
         <v>35504</v>
       </c>
-      <c r="C16" s="87"/>
+      <c r="C16" s="45">
+        <v>0</v>
+      </c>
       <c r="D16" s="45">
         <v>35504</v>
       </c>
-      <c r="E16" s="85"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="90">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="88">
         <v>44207</v>
       </c>
       <c r="B17" s="47">
         <v>67551</v>
       </c>
-      <c r="C17" s="91"/>
+      <c r="C17" s="47">
+        <v>0</v>
+      </c>
       <c r="D17" s="47">
         <v>67551</v>
       </c>
-      <c r="E17" s="85"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="86">
         <v>44208</v>
       </c>
       <c r="B18" s="45">
-        <v>82599</v>
-      </c>
-      <c r="C18" s="87"/>
+        <v>82614</v>
+      </c>
+      <c r="C18" s="45">
+        <v>0</v>
+      </c>
       <c r="D18" s="45">
-        <v>82599</v>
-      </c>
-      <c r="E18" s="85"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="88">
+        <v>82614</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="87">
         <v>44209</v>
       </c>
       <c r="B19" s="46">
-        <v>111538</v>
-      </c>
-      <c r="C19" s="89"/>
+        <v>111583</v>
+      </c>
+      <c r="C19" s="46">
+        <v>0</v>
+      </c>
       <c r="D19" s="46">
-        <v>111538</v>
-      </c>
-      <c r="E19" s="85"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>111583</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="86">
         <v>44210</v>
       </c>
       <c r="B20" s="45">
-        <v>82966</v>
-      </c>
-      <c r="C20" s="87"/>
+        <v>82965</v>
+      </c>
+      <c r="C20" s="45">
+        <v>0</v>
+      </c>
       <c r="D20" s="45">
-        <v>82966</v>
-      </c>
-      <c r="E20" s="85"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="88">
+        <v>82965</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="87">
         <v>44211</v>
       </c>
       <c r="B21" s="46">
-        <v>90907</v>
+        <v>90935</v>
       </c>
       <c r="C21" s="46">
         <v>610</v>
       </c>
       <c r="D21" s="46">
-        <v>91517</v>
-      </c>
-      <c r="E21" s="85"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>91545</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="86">
         <v>44212</v>
       </c>
       <c r="B22" s="45">
-        <v>56662</v>
+        <v>56670</v>
       </c>
       <c r="C22" s="45">
         <v>906</v>
       </c>
       <c r="D22" s="45">
-        <v>57568</v>
-      </c>
-      <c r="E22" s="85"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="88">
+        <v>57576</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="87">
         <v>44213</v>
       </c>
       <c r="B23" s="46">
@@ -4573,25 +4573,23 @@
       <c r="D23" s="46">
         <v>48999</v>
       </c>
-      <c r="E23" s="85"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="86">
         <v>44214</v>
       </c>
       <c r="B24" s="45">
-        <v>66856</v>
+        <v>66855</v>
       </c>
       <c r="C24" s="45">
         <v>15772</v>
       </c>
       <c r="D24" s="45">
-        <v>82628</v>
-      </c>
-      <c r="E24" s="85"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="88">
+        <v>82627</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="87">
         <v>44215</v>
       </c>
       <c r="B25" s="46">
@@ -4603,9 +4601,8 @@
       <c r="D25" s="46">
         <v>117675</v>
       </c>
-      <c r="E25" s="85"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="86">
         <v>44216</v>
       </c>
@@ -4618,54 +4615,50 @@
       <c r="D26" s="45">
         <v>132014</v>
       </c>
-      <c r="E26" s="85"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="88">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="87">
         <v>44217</v>
       </c>
       <c r="B27" s="46">
-        <v>65866</v>
+        <v>65867</v>
       </c>
       <c r="C27" s="46">
         <v>41853</v>
       </c>
       <c r="D27" s="46">
-        <v>107719</v>
-      </c>
-      <c r="E27" s="85"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107720</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="86">
         <v>44218</v>
       </c>
       <c r="B28" s="45">
-        <v>68480</v>
+        <v>68523</v>
       </c>
       <c r="C28" s="45">
         <v>35562</v>
       </c>
       <c r="D28" s="45">
-        <v>104042</v>
-      </c>
-      <c r="E28" s="85"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="88">
+        <v>104085</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="87">
         <v>44219</v>
       </c>
       <c r="B29" s="46">
-        <v>40049</v>
+        <v>40048</v>
       </c>
       <c r="C29" s="46">
         <v>44960</v>
       </c>
       <c r="D29" s="46">
-        <v>85009</v>
-      </c>
-      <c r="E29" s="85"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+        <v>85008</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="86">
         <v>44220</v>
       </c>
@@ -4678,40 +4671,37 @@
       <c r="D30" s="45">
         <v>49231</v>
       </c>
-      <c r="E30" s="85"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="90">
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" s="88">
         <v>44221</v>
       </c>
       <c r="B31" s="47">
         <v>53104</v>
       </c>
       <c r="C31" s="47">
-        <v>38600</v>
+        <v>38599</v>
       </c>
       <c r="D31" s="47">
-        <v>91704</v>
-      </c>
-      <c r="E31" s="85"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+        <v>91703</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="86">
         <v>44222</v>
       </c>
       <c r="B32" s="45">
-        <v>50241</v>
+        <v>50244</v>
       </c>
       <c r="C32" s="45">
         <v>48429</v>
       </c>
       <c r="D32" s="45">
-        <v>98670</v>
-      </c>
-      <c r="E32" s="85"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="90">
+        <v>98673</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" s="88">
         <v>44223</v>
       </c>
       <c r="B33" s="47">
@@ -4723,25 +4713,23 @@
       <c r="D33" s="47">
         <v>111145</v>
       </c>
-      <c r="E33" s="85"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="86">
         <v>44224</v>
       </c>
       <c r="B34" s="45">
-        <v>45127</v>
+        <v>45125</v>
       </c>
       <c r="C34" s="45">
-        <v>46111</v>
+        <v>46109</v>
       </c>
       <c r="D34" s="45">
-        <v>91238</v>
-      </c>
-      <c r="E34" s="85"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="88">
+        <v>91234</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" s="87">
         <v>44225</v>
       </c>
       <c r="B35" s="46">
@@ -4753,25 +4741,23 @@
       <c r="D35" s="46">
         <v>109113</v>
       </c>
-      <c r="E35" s="85"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="86">
         <v>44226</v>
       </c>
       <c r="B36" s="45">
-        <v>36346</v>
+        <v>36345</v>
       </c>
       <c r="C36" s="45">
         <v>52160</v>
       </c>
       <c r="D36" s="45">
-        <v>88506</v>
-      </c>
-      <c r="E36" s="85"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="88">
+        <v>88505</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" s="87">
         <v>44227</v>
       </c>
       <c r="B37" s="46">
@@ -4783,9 +4769,8 @@
       <c r="D37" s="46">
         <v>56514</v>
       </c>
-      <c r="E37" s="85"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="86">
         <v>44228</v>
       </c>
@@ -4798,40 +4783,37 @@
       <c r="D38" s="45">
         <v>120649</v>
       </c>
-      <c r="E38" s="85"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="88">
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" s="87">
         <v>44229</v>
       </c>
       <c r="B39" s="46">
-        <v>64215</v>
+        <v>64214</v>
       </c>
       <c r="C39" s="46">
-        <v>67478</v>
+        <v>67494</v>
       </c>
       <c r="D39" s="46">
-        <v>131693</v>
-      </c>
-      <c r="E39" s="85"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+        <v>131708</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="86">
         <v>44230</v>
       </c>
       <c r="B40" s="45">
-        <v>64162</v>
+        <v>64160</v>
       </c>
       <c r="C40" s="45">
-        <v>95326</v>
+        <v>95372</v>
       </c>
       <c r="D40" s="45">
-        <v>159488</v>
-      </c>
-      <c r="E40" s="85"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="88">
+        <v>159532</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" s="87">
         <v>44231</v>
       </c>
       <c r="B41" s="46">
@@ -4843,25 +4825,23 @@
       <c r="D41" s="46">
         <v>131775</v>
       </c>
-      <c r="E41" s="85"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="86">
         <v>44232</v>
       </c>
       <c r="B42" s="45">
-        <v>67664</v>
+        <v>67665</v>
       </c>
       <c r="C42" s="45">
-        <v>77115</v>
+        <v>77128</v>
       </c>
       <c r="D42" s="45">
-        <v>144779</v>
-      </c>
-      <c r="E42" s="85"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="88">
+        <v>144793</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" s="87">
         <v>44233</v>
       </c>
       <c r="B43" s="46">
@@ -4873,9 +4853,8 @@
       <c r="D43" s="46">
         <v>100151</v>
       </c>
-      <c r="E43" s="85"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="86">
         <v>44234</v>
       </c>
@@ -4888,84 +4867,78 @@
       <c r="D44" s="45">
         <v>54259</v>
       </c>
-      <c r="E44" s="85"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="88">
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45" s="87">
         <v>44235</v>
       </c>
       <c r="B45" s="46">
-        <v>53166</v>
+        <v>53165</v>
       </c>
       <c r="C45" s="46">
-        <v>56779</v>
+        <v>56780</v>
       </c>
       <c r="D45" s="46">
         <v>109945</v>
       </c>
-      <c r="E45" s="85"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="86">
         <v>44236</v>
       </c>
       <c r="B46" s="45">
-        <v>59690</v>
+        <v>59696</v>
       </c>
       <c r="C46" s="45">
-        <v>74238</v>
+        <v>74239</v>
       </c>
       <c r="D46" s="45">
-        <v>133928</v>
-      </c>
-      <c r="E46" s="85"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="90">
+        <v>133935</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A47" s="88">
         <v>44237</v>
       </c>
       <c r="B47" s="47">
-        <v>75150</v>
+        <v>75167</v>
       </c>
       <c r="C47" s="47">
         <v>76614</v>
       </c>
       <c r="D47" s="47">
-        <v>151764</v>
-      </c>
-      <c r="E47" s="85"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+        <v>151781</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="86">
         <v>44238</v>
       </c>
       <c r="B48" s="45">
-        <v>73837</v>
+        <v>73835</v>
       </c>
       <c r="C48" s="45">
         <v>67318</v>
       </c>
       <c r="D48" s="45">
-        <v>141155</v>
-      </c>
-      <c r="E48" s="85"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="90">
+        <v>141153</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" s="88">
         <v>44239</v>
       </c>
       <c r="B49" s="47">
         <v>81420</v>
       </c>
       <c r="C49" s="47">
-        <v>76077</v>
+        <v>76075</v>
       </c>
       <c r="D49" s="47">
-        <v>157497</v>
-      </c>
-      <c r="E49" s="85"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+        <v>157495</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="86">
         <v>44240</v>
       </c>
@@ -4973,15 +4946,14 @@
         <v>62178</v>
       </c>
       <c r="C50" s="45">
-        <v>45578</v>
+        <v>45579</v>
       </c>
       <c r="D50" s="45">
-        <v>107756</v>
-      </c>
-      <c r="E50" s="85"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="88">
+        <v>107757</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51" s="87">
         <v>44241</v>
       </c>
       <c r="B51" s="46">
@@ -4993,99 +4965,92 @@
       <c r="D51" s="46">
         <v>65294</v>
       </c>
-      <c r="E51" s="85"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="86">
         <v>44242</v>
       </c>
       <c r="B52" s="45">
-        <v>71147</v>
+        <v>71223</v>
       </c>
       <c r="C52" s="45">
-        <v>55611</v>
+        <v>55617</v>
       </c>
       <c r="D52" s="45">
-        <v>126758</v>
-      </c>
-      <c r="E52" s="85"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="88">
+        <v>126840</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A53" s="87">
         <v>44243</v>
       </c>
       <c r="B53" s="46">
-        <v>81983</v>
+        <v>82004</v>
       </c>
       <c r="C53" s="46">
-        <v>54627</v>
+        <v>54626</v>
       </c>
       <c r="D53" s="46">
-        <v>136610</v>
-      </c>
-      <c r="E53" s="85"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+        <v>136630</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="86">
         <v>44244</v>
       </c>
       <c r="B54" s="45">
-        <v>93532</v>
+        <v>93566</v>
       </c>
       <c r="C54" s="45">
-        <v>55671</v>
+        <v>55672</v>
       </c>
       <c r="D54" s="45">
-        <v>149203</v>
-      </c>
-      <c r="E54" s="85"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="88">
+        <v>149238</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55" s="87">
         <v>44245</v>
       </c>
       <c r="B55" s="46">
-        <v>91461</v>
+        <v>91469</v>
       </c>
       <c r="C55" s="46">
-        <v>51238</v>
+        <v>51237</v>
       </c>
       <c r="D55" s="46">
-        <v>142699</v>
-      </c>
-      <c r="E55" s="85"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+        <v>142706</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="86">
         <v>44246</v>
       </c>
       <c r="B56" s="45">
-        <v>99791</v>
+        <v>99836</v>
       </c>
       <c r="C56" s="45">
-        <v>54733</v>
+        <v>54759</v>
       </c>
       <c r="D56" s="45">
-        <v>154524</v>
-      </c>
-      <c r="E56" s="85"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="88">
+        <v>154595</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A57" s="87">
         <v>44247</v>
       </c>
       <c r="B57" s="46">
-        <v>76305</v>
+        <v>76313</v>
       </c>
       <c r="C57" s="46">
-        <v>37099</v>
+        <v>37097</v>
       </c>
       <c r="D57" s="46">
-        <v>113404</v>
-      </c>
-      <c r="E57" s="85"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+        <v>113410</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" s="86">
         <v>44248</v>
       </c>
@@ -5098,190 +5063,177 @@
       <c r="D58" s="45">
         <v>86155</v>
       </c>
-      <c r="E58" s="85"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="88">
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A59" s="87">
         <v>44249</v>
       </c>
       <c r="B59" s="46">
-        <v>100234</v>
+        <v>100242</v>
       </c>
       <c r="C59" s="46">
-        <v>60111</v>
+        <v>60115</v>
       </c>
       <c r="D59" s="46">
-        <v>160345</v>
-      </c>
-      <c r="E59" s="85"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+        <v>160357</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" s="86">
         <v>44250</v>
       </c>
       <c r="B60" s="45">
-        <v>107434</v>
+        <v>107431</v>
       </c>
       <c r="C60" s="45">
-        <v>59771</v>
+        <v>59770</v>
       </c>
       <c r="D60" s="45">
-        <v>167205</v>
-      </c>
-      <c r="E60" s="85"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="88">
+        <v>167201</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A61" s="87">
         <v>44251</v>
       </c>
       <c r="B61" s="46">
-        <v>116371</v>
+        <v>116393</v>
       </c>
       <c r="C61" s="46">
-        <v>59596</v>
+        <v>59591</v>
       </c>
       <c r="D61" s="46">
-        <v>175967</v>
-      </c>
-      <c r="E61" s="85"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+        <v>175984</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="86">
         <v>44252</v>
       </c>
       <c r="B62" s="45">
-        <v>130819</v>
+        <v>130872</v>
       </c>
       <c r="C62" s="45">
-        <v>58530</v>
+        <v>58529</v>
       </c>
       <c r="D62" s="45">
-        <v>189349</v>
-      </c>
-      <c r="E62" s="85"/>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="90">
+        <v>189401</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A63" s="88">
         <v>44253</v>
       </c>
       <c r="B63" s="47">
-        <v>144369</v>
+        <v>144402</v>
       </c>
       <c r="C63" s="47">
-        <v>65424</v>
+        <v>65411</v>
       </c>
       <c r="D63" s="47">
-        <v>209793</v>
-      </c>
-      <c r="E63" s="85"/>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+        <v>209813</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" s="86">
         <v>44254</v>
       </c>
       <c r="B64" s="45">
-        <v>108605</v>
+        <v>108604</v>
       </c>
       <c r="C64" s="45">
         <v>40014</v>
       </c>
       <c r="D64" s="45">
-        <v>148619</v>
-      </c>
-      <c r="E64" s="85"/>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="90">
+        <v>148618</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A65" s="88">
         <v>44255</v>
       </c>
       <c r="B65" s="47">
-        <v>83810</v>
+        <v>83809</v>
       </c>
       <c r="C65" s="47">
-        <v>24291</v>
+        <v>24290</v>
       </c>
       <c r="D65" s="47">
-        <v>108101</v>
-      </c>
-      <c r="E65" s="85"/>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+        <v>108099</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" s="86">
         <v>44256</v>
       </c>
       <c r="B66" s="45">
-        <v>146448</v>
+        <v>146470</v>
       </c>
       <c r="C66" s="45">
         <v>49368</v>
       </c>
       <c r="D66" s="45">
-        <v>195816</v>
-      </c>
-      <c r="E66" s="85"/>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="88">
+        <v>195838</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A67" s="87">
         <v>44257</v>
       </c>
       <c r="B67" s="46">
-        <v>166322</v>
+        <v>166338</v>
       </c>
       <c r="C67" s="46">
-        <v>53687</v>
+        <v>53686</v>
       </c>
       <c r="D67" s="46">
-        <v>220009</v>
-      </c>
-      <c r="E67" s="85"/>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+        <v>220024</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" s="86">
         <v>44258</v>
       </c>
       <c r="B68" s="45">
-        <v>174721</v>
+        <v>174757</v>
       </c>
       <c r="C68" s="45">
-        <v>68995</v>
+        <v>68992</v>
       </c>
       <c r="D68" s="45">
-        <v>243716</v>
-      </c>
-      <c r="E68" s="85"/>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="88">
+        <v>243749</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A69" s="87">
         <v>44259</v>
       </c>
       <c r="B69" s="46">
-        <v>180464</v>
+        <v>180470</v>
       </c>
       <c r="C69" s="46">
-        <v>62680</v>
+        <v>62682</v>
       </c>
       <c r="D69" s="46">
-        <v>243144</v>
-      </c>
-      <c r="E69" s="85"/>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+        <v>243152</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="86">
         <v>44260</v>
       </c>
       <c r="B70" s="45">
-        <v>201726</v>
+        <v>201744</v>
       </c>
       <c r="C70" s="45">
-        <v>67423</v>
+        <v>67424</v>
       </c>
       <c r="D70" s="45">
-        <v>269149</v>
-      </c>
-      <c r="E70" s="85"/>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="88">
+        <v>269168</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A71" s="87">
         <v>44261</v>
       </c>
       <c r="B71" s="46">
@@ -5293,9 +5245,8 @@
       <c r="D71" s="46">
         <v>202488</v>
       </c>
-      <c r="E71" s="85"/>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" s="86">
         <v>44262</v>
       </c>
@@ -5303,149 +5254,139 @@
         <v>115930</v>
       </c>
       <c r="C72" s="45">
-        <v>34462</v>
+        <v>34458</v>
       </c>
       <c r="D72" s="45">
-        <v>150392</v>
-      </c>
-      <c r="E72" s="85"/>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="88">
+        <v>150388</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A73" s="87">
         <v>44263</v>
       </c>
       <c r="B73" s="46">
-        <v>186717</v>
+        <v>186721</v>
       </c>
       <c r="C73" s="46">
-        <v>52508</v>
+        <v>52510</v>
       </c>
       <c r="D73" s="46">
-        <v>239225</v>
-      </c>
-      <c r="E73" s="85"/>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+        <v>239231</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" s="86">
         <v>44264</v>
       </c>
       <c r="B74" s="45">
-        <v>195720</v>
+        <v>195723</v>
       </c>
       <c r="C74" s="45">
         <v>54762</v>
       </c>
       <c r="D74" s="45">
-        <v>250482</v>
-      </c>
-      <c r="E74" s="85"/>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="88">
+        <v>250485</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A75" s="87">
         <v>44265</v>
       </c>
       <c r="B75" s="46">
-        <v>218075</v>
+        <v>218091</v>
       </c>
       <c r="C75" s="46">
-        <v>65687</v>
+        <v>65682</v>
       </c>
       <c r="D75" s="46">
-        <v>283762</v>
-      </c>
-      <c r="E75" s="85"/>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+        <v>283773</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" s="86">
         <v>44266</v>
       </c>
       <c r="B76" s="45">
-        <v>220706</v>
+        <v>220718</v>
       </c>
       <c r="C76" s="45">
-        <v>60904</v>
+        <v>60903</v>
       </c>
       <c r="D76" s="45">
-        <v>281610</v>
-      </c>
-      <c r="E76" s="85"/>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="88">
+        <v>281621</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A77" s="87">
         <v>44267</v>
       </c>
       <c r="B77" s="46">
-        <v>252455</v>
+        <v>252518</v>
       </c>
       <c r="C77" s="46">
-        <v>71646</v>
+        <v>71666</v>
       </c>
       <c r="D77" s="46">
-        <v>324101</v>
-      </c>
-      <c r="E77" s="85"/>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+        <v>324184</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" s="86">
         <v>44268</v>
       </c>
       <c r="B78" s="45">
-        <v>197100</v>
+        <v>197132</v>
       </c>
       <c r="C78" s="45">
-        <v>49441</v>
+        <v>49448</v>
       </c>
       <c r="D78" s="45">
-        <v>246541</v>
-      </c>
-      <c r="E78" s="85"/>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="90">
+        <v>246580</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A79" s="88">
         <v>44269</v>
       </c>
       <c r="B79" s="47">
-        <v>135239</v>
+        <v>135235</v>
       </c>
       <c r="C79" s="47">
-        <v>35994</v>
+        <v>35993</v>
       </c>
       <c r="D79" s="47">
-        <v>171233</v>
-      </c>
-      <c r="E79" s="85"/>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+        <v>171228</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" s="86">
         <v>44270</v>
       </c>
       <c r="B80" s="45">
-        <v>189429</v>
+        <v>189428</v>
       </c>
       <c r="C80" s="45">
-        <v>58863</v>
+        <v>58862</v>
       </c>
       <c r="D80" s="45">
-        <v>248292</v>
-      </c>
-      <c r="E80" s="85"/>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="90">
+        <v>248290</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A81" s="88">
         <v>44271</v>
       </c>
       <c r="B81" s="47">
-        <v>112133</v>
+        <v>112135</v>
       </c>
       <c r="C81" s="47">
-        <v>67024</v>
+        <v>67023</v>
       </c>
       <c r="D81" s="47">
-        <v>179157</v>
-      </c>
-      <c r="E81" s="85"/>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+        <v>179158</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" s="86">
         <v>44272</v>
       </c>
@@ -5453,269 +5394,251 @@
         <v>125750</v>
       </c>
       <c r="C82" s="45">
-        <v>79465</v>
+        <v>79466</v>
       </c>
       <c r="D82" s="45">
-        <v>205215</v>
-      </c>
-      <c r="E82" s="85"/>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="88">
+        <v>205216</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A83" s="87">
         <v>44273</v>
       </c>
       <c r="B83" s="46">
-        <v>119366</v>
+        <v>119367</v>
       </c>
       <c r="C83" s="46">
-        <v>75347</v>
+        <v>75345</v>
       </c>
       <c r="D83" s="46">
-        <v>194713</v>
-      </c>
-      <c r="E83" s="85"/>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194712</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" s="86">
         <v>44274</v>
       </c>
       <c r="B84" s="45">
-        <v>161069</v>
+        <v>161083</v>
       </c>
       <c r="C84" s="45">
         <v>82842</v>
       </c>
       <c r="D84" s="45">
-        <v>243911</v>
-      </c>
-      <c r="E84" s="85"/>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="88">
+        <v>243925</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A85" s="87">
         <v>44275</v>
       </c>
       <c r="B85" s="46">
-        <v>166373</v>
+        <v>166380</v>
       </c>
       <c r="C85" s="46">
-        <v>53888</v>
+        <v>53887</v>
       </c>
       <c r="D85" s="46">
-        <v>220261</v>
-      </c>
-      <c r="E85" s="85"/>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+        <v>220267</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" s="86">
         <v>44276</v>
       </c>
       <c r="B86" s="45">
-        <v>127338</v>
+        <v>127337</v>
       </c>
       <c r="C86" s="45">
-        <v>38763</v>
+        <v>38761</v>
       </c>
       <c r="D86" s="45">
-        <v>166101</v>
-      </c>
-      <c r="E86" s="85"/>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="88">
+        <v>166098</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A87" s="87">
         <v>44277</v>
       </c>
       <c r="B87" s="46">
-        <v>190053</v>
+        <v>190049</v>
       </c>
       <c r="C87" s="46">
-        <v>76164</v>
+        <v>76163</v>
       </c>
       <c r="D87" s="46">
-        <v>266217</v>
-      </c>
-      <c r="E87" s="85"/>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+        <v>266212</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" s="86">
         <v>44278</v>
       </c>
       <c r="B88" s="45">
-        <v>214161</v>
+        <v>214167</v>
       </c>
       <c r="C88" s="45">
-        <v>83763</v>
+        <v>83762</v>
       </c>
       <c r="D88" s="45">
-        <v>297924</v>
-      </c>
-      <c r="E88" s="85"/>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="88">
+        <v>297929</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A89" s="87">
         <v>44279</v>
       </c>
       <c r="B89" s="46">
-        <v>245765</v>
+        <v>245802</v>
       </c>
       <c r="C89" s="46">
-        <v>88314</v>
+        <v>88310</v>
       </c>
       <c r="D89" s="46">
-        <v>334079</v>
-      </c>
-      <c r="E89" s="85"/>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+        <v>334112</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" s="86">
         <v>44280</v>
       </c>
       <c r="B90" s="45">
-        <v>257445</v>
+        <v>257460</v>
       </c>
       <c r="C90" s="45">
         <v>80155</v>
       </c>
       <c r="D90" s="45">
-        <v>337600</v>
-      </c>
-      <c r="E90" s="85"/>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="88">
+        <v>337615</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A91" s="87">
         <v>44281</v>
       </c>
       <c r="B91" s="46">
-        <v>285988</v>
+        <v>286011</v>
       </c>
       <c r="C91" s="46">
-        <v>88752</v>
+        <v>88766</v>
       </c>
       <c r="D91" s="46">
-        <v>374740</v>
-      </c>
-      <c r="E91" s="85"/>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+        <v>374777</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" s="86">
         <v>44282</v>
       </c>
       <c r="B92" s="45">
-        <v>223628</v>
+        <v>223625</v>
       </c>
       <c r="C92" s="45">
-        <v>63155</v>
+        <v>63159</v>
       </c>
       <c r="D92" s="45">
-        <v>286783</v>
-      </c>
-      <c r="E92" s="85"/>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="88">
+        <v>286784</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A93" s="87">
         <v>44283</v>
       </c>
       <c r="B93" s="46">
         <v>144184</v>
       </c>
       <c r="C93" s="46">
-        <v>52741</v>
+        <v>52740</v>
       </c>
       <c r="D93" s="46">
-        <v>196925</v>
-      </c>
-      <c r="E93" s="85"/>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+        <v>196924</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" s="86">
         <v>44284</v>
       </c>
       <c r="B94" s="45">
-        <v>219790</v>
+        <v>219804</v>
       </c>
       <c r="C94" s="45">
-        <v>89038</v>
+        <v>89040</v>
       </c>
       <c r="D94" s="45">
-        <v>308828</v>
-      </c>
-      <c r="E94" s="85"/>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="90">
+        <v>308844</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A95" s="88">
         <v>44285</v>
       </c>
       <c r="B95" s="47">
-        <v>235143</v>
+        <v>235187</v>
       </c>
       <c r="C95" s="47">
         <v>93353</v>
       </c>
       <c r="D95" s="47">
-        <v>328496</v>
-      </c>
-      <c r="E95" s="85"/>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+        <v>328540</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" s="86">
         <v>44286</v>
       </c>
       <c r="B96" s="45">
-        <v>238536</v>
+        <v>238542</v>
       </c>
       <c r="C96" s="45">
-        <v>103075</v>
+        <v>103098</v>
       </c>
       <c r="D96" s="45">
-        <v>341611</v>
-      </c>
-      <c r="E96" s="85"/>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="90">
+        <v>341640</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A97" s="88">
         <v>44287</v>
       </c>
       <c r="B97" s="47">
-        <v>231368</v>
+        <v>231621</v>
       </c>
       <c r="C97" s="47">
-        <v>92404</v>
+        <v>92402</v>
       </c>
       <c r="D97" s="47">
-        <v>323772</v>
-      </c>
-      <c r="E97" s="85"/>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+        <v>324023</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" s="86">
         <v>44288</v>
       </c>
       <c r="B98" s="45">
-        <v>158409</v>
+        <v>158411</v>
       </c>
       <c r="C98" s="45">
         <v>71581</v>
       </c>
       <c r="D98" s="45">
-        <v>229990</v>
-      </c>
-      <c r="E98" s="85"/>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="88">
+        <v>229992</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A99" s="87">
         <v>44289</v>
       </c>
       <c r="B99" s="46">
-        <v>166017</v>
+        <v>166018</v>
       </c>
       <c r="C99" s="46">
         <v>66016</v>
       </c>
       <c r="D99" s="46">
-        <v>232033</v>
-      </c>
-      <c r="E99" s="85"/>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+        <v>232034</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" s="86">
         <v>44290</v>
       </c>
@@ -5723,717 +5646,675 @@
         <v>142597</v>
       </c>
       <c r="C100" s="45">
-        <v>53538</v>
+        <v>53537</v>
       </c>
       <c r="D100" s="45">
-        <v>196135</v>
-      </c>
-      <c r="E100" s="85"/>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="88">
+        <v>196134</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A101" s="87">
         <v>44291</v>
       </c>
       <c r="B101" s="46">
-        <v>176296</v>
+        <v>176300</v>
       </c>
       <c r="C101" s="46">
-        <v>73383</v>
+        <v>73380</v>
       </c>
       <c r="D101" s="46">
-        <v>249679</v>
-      </c>
-      <c r="E101" s="85"/>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+        <v>249680</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" s="86">
         <v>44292</v>
       </c>
       <c r="B102" s="45">
-        <v>279537</v>
+        <v>279591</v>
       </c>
       <c r="C102" s="45">
-        <v>99041</v>
+        <v>99047</v>
       </c>
       <c r="D102" s="45">
-        <v>378578</v>
-      </c>
-      <c r="E102" s="85"/>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="88">
+        <v>378638</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A103" s="87">
         <v>44293</v>
       </c>
       <c r="B103" s="46">
-        <v>580658</v>
+        <v>581115</v>
       </c>
       <c r="C103" s="46">
-        <v>97092</v>
+        <v>97062</v>
       </c>
       <c r="D103" s="46">
-        <v>677750</v>
-      </c>
-      <c r="E103" s="85"/>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+        <v>678177</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" s="86">
         <v>44294</v>
       </c>
       <c r="B104" s="45">
-        <v>643215</v>
+        <v>643242</v>
       </c>
       <c r="C104" s="45">
-        <v>89732</v>
+        <v>89718</v>
       </c>
       <c r="D104" s="45">
-        <v>732947</v>
-      </c>
-      <c r="E104" s="85"/>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="88">
+        <v>732960</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A105" s="87">
         <v>44295</v>
       </c>
       <c r="B105" s="46">
-        <v>534853</v>
+        <v>534444</v>
       </c>
       <c r="C105" s="46">
-        <v>88317</v>
+        <v>88463</v>
       </c>
       <c r="D105" s="46">
-        <v>623170</v>
-      </c>
-      <c r="E105" s="85"/>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+        <v>622907</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106" s="86">
         <v>44296</v>
       </c>
       <c r="B106" s="45">
-        <v>303049</v>
+        <v>302879</v>
       </c>
       <c r="C106" s="45">
-        <v>65449</v>
+        <v>65561</v>
       </c>
       <c r="D106" s="45">
-        <v>368498</v>
-      </c>
-      <c r="E106" s="85"/>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" s="88">
+        <v>368440</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A107" s="87">
         <v>44297</v>
       </c>
       <c r="B107" s="46">
-        <v>210526</v>
+        <v>210531</v>
       </c>
       <c r="C107" s="46">
-        <v>50070</v>
+        <v>50067</v>
       </c>
       <c r="D107" s="46">
-        <v>260596</v>
-      </c>
-      <c r="E107" s="85"/>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+        <v>260598</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108" s="86">
         <v>44298</v>
       </c>
       <c r="B108" s="45">
-        <v>338917</v>
+        <v>338915</v>
       </c>
       <c r="C108" s="45">
-        <v>76819</v>
+        <v>76945</v>
       </c>
       <c r="D108" s="45">
-        <v>415736</v>
-      </c>
-      <c r="E108" s="85"/>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" s="88">
+        <v>415860</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A109" s="87">
         <v>44299</v>
       </c>
       <c r="B109" s="46">
         <v>497921</v>
       </c>
       <c r="C109" s="46">
-        <v>73383</v>
+        <v>73518</v>
       </c>
       <c r="D109" s="46">
-        <v>571304</v>
-      </c>
-      <c r="E109" s="85"/>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+        <v>571439</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" s="86">
         <v>44300</v>
       </c>
       <c r="B110" s="45">
-        <v>690514</v>
+        <v>690771</v>
       </c>
       <c r="C110" s="45">
-        <v>83394</v>
+        <v>83498</v>
       </c>
       <c r="D110" s="45">
-        <v>773908</v>
-      </c>
-      <c r="E110" s="85"/>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" s="90">
+        <v>774269</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A111" s="88">
         <v>44301</v>
       </c>
       <c r="B111" s="47">
-        <v>608605</v>
+        <v>608624</v>
       </c>
       <c r="C111" s="47">
-        <v>70784</v>
+        <v>70904</v>
       </c>
       <c r="D111" s="47">
-        <v>679389</v>
-      </c>
-      <c r="E111" s="85"/>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+        <v>679528</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" s="86">
         <v>44302</v>
       </c>
       <c r="B112" s="45">
-        <v>518033</v>
+        <v>518120</v>
       </c>
       <c r="C112" s="45">
-        <v>75355</v>
+        <v>75382</v>
       </c>
       <c r="D112" s="45">
-        <v>593388</v>
-      </c>
-      <c r="E112" s="85"/>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" s="90">
+        <v>593502</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A113" s="88">
         <v>44303</v>
       </c>
       <c r="B113" s="47">
-        <v>305809</v>
+        <v>305814</v>
       </c>
       <c r="C113" s="47">
-        <v>56479</v>
+        <v>56484</v>
       </c>
       <c r="D113" s="47">
-        <v>362288</v>
-      </c>
-      <c r="E113" s="85"/>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+        <v>362298</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114" s="86">
         <v>44304</v>
       </c>
       <c r="B114" s="45">
-        <v>226958</v>
+        <v>226961</v>
       </c>
       <c r="C114" s="45">
-        <v>39222</v>
+        <v>39223</v>
       </c>
       <c r="D114" s="45">
-        <v>266180</v>
-      </c>
-      <c r="E114" s="85"/>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115" s="88">
+        <v>266184</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A115" s="87">
         <v>44305</v>
       </c>
       <c r="B115" s="46">
-        <v>338247</v>
+        <v>338335</v>
       </c>
       <c r="C115" s="46">
-        <v>60783</v>
+        <v>60787</v>
       </c>
       <c r="D115" s="46">
-        <v>399030</v>
-      </c>
-      <c r="E115" s="85"/>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+        <v>399122</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116" s="86">
         <v>44306</v>
       </c>
       <c r="B116" s="45">
-        <v>493769</v>
+        <v>493797</v>
       </c>
       <c r="C116" s="45">
-        <v>61614</v>
+        <v>61618</v>
       </c>
       <c r="D116" s="45">
-        <v>555383</v>
-      </c>
-      <c r="E116" s="85"/>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117" s="88">
+        <v>555415</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A117" s="87">
         <v>44307</v>
       </c>
       <c r="B117" s="46">
-        <v>641793</v>
+        <v>641897</v>
       </c>
       <c r="C117" s="46">
         <v>71749</v>
       </c>
       <c r="D117" s="46">
-        <v>713542</v>
-      </c>
-      <c r="E117" s="85"/>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+        <v>713646</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118" s="86">
         <v>44308</v>
       </c>
       <c r="B118" s="45">
-        <v>567901</v>
+        <v>567970</v>
       </c>
       <c r="C118" s="45">
-        <v>66117</v>
+        <v>66114</v>
       </c>
       <c r="D118" s="45">
-        <v>634018</v>
-      </c>
-      <c r="E118" s="85"/>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" s="88">
+        <v>634084</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A119" s="87">
         <v>44309</v>
       </c>
       <c r="B119" s="46">
-        <v>483424</v>
+        <v>483509</v>
       </c>
       <c r="C119" s="46">
-        <v>67544</v>
+        <v>67539</v>
       </c>
       <c r="D119" s="46">
-        <v>550968</v>
-      </c>
-      <c r="E119" s="85"/>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+        <v>551048</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120" s="86">
         <v>44310</v>
       </c>
       <c r="B120" s="45">
-        <v>309370</v>
+        <v>309378</v>
       </c>
       <c r="C120" s="45">
-        <v>59763</v>
+        <v>59757</v>
       </c>
       <c r="D120" s="45">
-        <v>369133</v>
-      </c>
-      <c r="E120" s="85"/>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121" s="88">
+        <v>369135</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A121" s="87">
         <v>44311</v>
       </c>
       <c r="B121" s="46">
-        <v>235491</v>
+        <v>235497</v>
       </c>
       <c r="C121" s="46">
-        <v>47748</v>
+        <v>47745</v>
       </c>
       <c r="D121" s="46">
-        <v>283239</v>
-      </c>
-      <c r="E121" s="85"/>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+        <v>283242</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122" s="86">
         <v>44312</v>
       </c>
       <c r="B122" s="45">
-        <v>354515</v>
+        <v>354559</v>
       </c>
       <c r="C122" s="45">
-        <v>73233</v>
+        <v>73227</v>
       </c>
       <c r="D122" s="45">
-        <v>427748</v>
-      </c>
-      <c r="E122" s="85"/>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123" s="88">
+        <v>427786</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A123" s="87">
         <v>44313</v>
       </c>
       <c r="B123" s="46">
-        <v>693549</v>
+        <v>693564</v>
       </c>
       <c r="C123" s="46">
-        <v>90428</v>
+        <v>90441</v>
       </c>
       <c r="D123" s="46">
-        <v>783977</v>
-      </c>
-      <c r="E123" s="85"/>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+        <v>784005</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124" s="86">
         <v>44314</v>
       </c>
       <c r="B124" s="45">
-        <v>993385</v>
+        <v>993418</v>
       </c>
       <c r="C124" s="45">
-        <v>126808</v>
+        <v>127087</v>
       </c>
       <c r="D124" s="45">
-        <v>1120193</v>
-      </c>
-      <c r="E124" s="85"/>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125" s="88">
+        <v>1120505</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A125" s="87">
         <v>44315</v>
       </c>
       <c r="B125" s="46">
-        <v>808235</v>
+        <v>808254</v>
       </c>
       <c r="C125" s="46">
-        <v>131641</v>
+        <v>131710</v>
       </c>
       <c r="D125" s="46">
-        <v>939876</v>
-      </c>
-      <c r="E125" s="85"/>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+        <v>939964</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126" s="86">
         <v>44316</v>
       </c>
       <c r="B126" s="45">
-        <v>662188</v>
+        <v>662193</v>
       </c>
       <c r="C126" s="45">
-        <v>137346</v>
+        <v>137401</v>
       </c>
       <c r="D126" s="45">
-        <v>799534</v>
-      </c>
-      <c r="E126" s="85"/>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127" s="88">
+        <v>799594</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A127" s="87">
         <v>44317</v>
       </c>
       <c r="B127" s="46">
-        <v>259041</v>
+        <v>259053</v>
       </c>
       <c r="C127" s="46">
-        <v>76146</v>
+        <v>76172</v>
       </c>
       <c r="D127" s="46">
-        <v>335187</v>
-      </c>
-      <c r="E127" s="85"/>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+        <v>335225</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128" s="86">
         <v>44318</v>
       </c>
       <c r="B128" s="45">
-        <v>195315</v>
+        <v>195322</v>
       </c>
       <c r="C128" s="45">
-        <v>67772</v>
+        <v>67768</v>
       </c>
       <c r="D128" s="45">
-        <v>263087</v>
-      </c>
-      <c r="E128" s="85"/>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A129" s="88">
+        <v>263090</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A129" s="87">
         <v>44319</v>
       </c>
       <c r="B129" s="46">
-        <v>333518</v>
+        <v>333545</v>
       </c>
       <c r="C129" s="46">
-        <v>115605</v>
+        <v>115619</v>
       </c>
       <c r="D129" s="46">
-        <v>449123</v>
-      </c>
-      <c r="E129" s="85"/>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+        <v>449164</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130" s="86">
         <v>44320</v>
       </c>
       <c r="B130" s="45">
-        <v>677845</v>
+        <v>677991</v>
       </c>
       <c r="C130" s="45">
-        <v>161219</v>
+        <v>161281</v>
       </c>
       <c r="D130" s="45">
-        <v>839064</v>
-      </c>
-      <c r="E130" s="85"/>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A131" s="88">
+        <v>839272</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A131" s="87">
         <v>44321</v>
       </c>
       <c r="B131" s="46">
-        <v>907852</v>
+        <v>907925</v>
       </c>
       <c r="C131" s="46">
-        <v>225878</v>
+        <v>225983</v>
       </c>
       <c r="D131" s="46">
-        <v>1133730</v>
-      </c>
-      <c r="E131" s="85"/>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1133908</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132" s="86">
         <v>44322</v>
       </c>
       <c r="B132" s="45">
-        <v>760120</v>
+        <v>760745</v>
       </c>
       <c r="C132" s="45">
-        <v>216630</v>
+        <v>217151</v>
       </c>
       <c r="D132" s="45">
-        <v>976750</v>
-      </c>
-      <c r="E132" s="85"/>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133" s="88">
+        <v>977896</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A133" s="87">
         <v>44323</v>
       </c>
       <c r="B133" s="46">
-        <v>644705</v>
+        <v>644956</v>
       </c>
       <c r="C133" s="46">
-        <v>227355</v>
+        <v>228862</v>
       </c>
       <c r="D133" s="46">
-        <v>872060</v>
-      </c>
-      <c r="E133" s="85"/>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+        <v>873818</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134" s="86">
         <v>44324</v>
       </c>
       <c r="B134" s="45">
-        <v>268505</v>
+        <v>268527</v>
       </c>
       <c r="C134" s="45">
-        <v>151763</v>
+        <v>152163</v>
       </c>
       <c r="D134" s="45">
-        <v>420268</v>
-      </c>
-      <c r="E134" s="85"/>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A135" s="88">
+        <v>420690</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A135" s="87">
         <v>44325</v>
       </c>
       <c r="B135" s="46">
-        <v>181254</v>
+        <v>181264</v>
       </c>
       <c r="C135" s="46">
-        <v>101844</v>
+        <v>101890</v>
       </c>
       <c r="D135" s="46">
-        <v>283098</v>
-      </c>
-      <c r="E135" s="85"/>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+        <v>283154</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A136" s="86">
         <v>44326</v>
       </c>
       <c r="B136" s="45">
-        <v>390320</v>
+        <v>391115</v>
       </c>
       <c r="C136" s="45">
-        <v>189804</v>
+        <v>190169</v>
       </c>
       <c r="D136" s="45">
-        <v>580124</v>
-      </c>
-      <c r="E136" s="85"/>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A137" s="88">
+        <v>581284</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A137" s="87">
         <v>44327</v>
       </c>
       <c r="B137" s="46">
-        <v>792558</v>
+        <v>792614</v>
       </c>
       <c r="C137" s="46">
-        <v>281533</v>
+        <v>281812</v>
       </c>
       <c r="D137" s="46">
-        <v>1074091</v>
-      </c>
-      <c r="E137" s="85"/>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1074426</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A138" s="86">
         <v>44328</v>
       </c>
       <c r="B138" s="45">
-        <v>1039894</v>
+        <v>1040504</v>
       </c>
       <c r="C138" s="45">
-        <v>357451</v>
+        <v>358412</v>
       </c>
       <c r="D138" s="45">
-        <v>1397345</v>
-      </c>
-      <c r="E138" s="85"/>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A139" s="88">
+        <v>1398916</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A139" s="87">
         <v>44329</v>
       </c>
       <c r="B139" s="46">
-        <v>264433</v>
+        <v>264503</v>
       </c>
       <c r="C139" s="46">
-        <v>155359</v>
+        <v>156278</v>
       </c>
       <c r="D139" s="46">
-        <v>419792</v>
-      </c>
-      <c r="E139" s="85"/>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+        <v>420781</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140" s="86">
         <v>44330</v>
       </c>
       <c r="B140" s="45">
-        <v>518562</v>
+        <v>518998</v>
       </c>
       <c r="C140" s="45">
-        <v>221664</v>
+        <v>222726</v>
       </c>
       <c r="D140" s="45">
-        <v>740226</v>
-      </c>
-      <c r="E140" s="85"/>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A141" s="88">
+        <v>741724</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A141" s="87">
         <v>44331</v>
       </c>
       <c r="B141" s="46">
-        <v>229335</v>
+        <v>229787</v>
       </c>
       <c r="C141" s="46">
-        <v>158995</v>
+        <v>159826</v>
       </c>
       <c r="D141" s="46">
-        <v>388330</v>
-      </c>
-      <c r="E141" s="85"/>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+        <v>389613</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A142" s="86">
         <v>44332</v>
       </c>
       <c r="B142" s="45">
-        <v>157754</v>
+        <v>157911</v>
       </c>
       <c r="C142" s="45">
-        <v>116905</v>
+        <v>117258</v>
       </c>
       <c r="D142" s="45">
-        <v>274659</v>
-      </c>
-      <c r="E142" s="85"/>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A143" s="88">
+        <v>275169</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A143" s="87">
         <v>44333</v>
       </c>
       <c r="B143" s="46">
-        <v>341985</v>
+        <v>343955</v>
       </c>
       <c r="C143" s="46">
-        <v>190619</v>
+        <v>197192</v>
       </c>
       <c r="D143" s="46">
-        <v>532604</v>
-      </c>
-      <c r="E143" s="85"/>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+        <v>541147</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A144" s="86">
         <v>44334</v>
       </c>
       <c r="B144" s="45">
-        <v>508111</v>
+        <v>512498</v>
       </c>
       <c r="C144" s="45">
-        <v>335867</v>
+        <v>343242</v>
       </c>
       <c r="D144" s="45">
-        <v>843978</v>
-      </c>
-      <c r="E144" s="85"/>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A145" s="88"/>
-      <c r="B145" s="46"/>
-      <c r="C145" s="46"/>
-      <c r="D145" s="46"/>
-      <c r="E145" s="85"/>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A146" s="86" t="s">
+        <v>855740</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A145" s="87">
+        <v>44335</v>
+      </c>
+      <c r="B145" s="46">
+        <v>550376</v>
+      </c>
+      <c r="C145" s="46">
+        <v>508685</v>
+      </c>
+      <c r="D145" s="46">
+        <v>1059061</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A146" s="87"/>
+      <c r="B146" s="46"/>
+      <c r="C146" s="46"/>
+      <c r="D146" s="46"/>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A147" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="B146" s="45">
-        <v>31616223</v>
-      </c>
-      <c r="C146" s="45">
-        <v>9901626</v>
-      </c>
-      <c r="D146" s="45">
-        <v>41517849</v>
-      </c>
-      <c r="E146" s="85"/>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A147" s="85"/>
-      <c r="B147" s="85"/>
-      <c r="C147" s="85"/>
-      <c r="D147" s="85"/>
-      <c r="E147" s="85"/>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A148" s="85" t="s">
+      <c r="B147" s="45">
+        <v>32178636</v>
+      </c>
+      <c r="C147" s="45">
+        <v>10432968</v>
+      </c>
+      <c r="D147" s="45">
+        <v>42611604</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A148" s="66"/>
+      <c r="B148" s="66"/>
+      <c r="C148" s="66"/>
+      <c r="D148" s="66"/>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A149" s="66" t="s">
         <v>82</v>
       </c>
-      <c r="B148" s="85"/>
-      <c r="C148" s="85"/>
-      <c r="D148" s="85"/>
-      <c r="E148" s="85"/>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149" s="85"/>
-      <c r="B149" s="85"/>
-      <c r="C149" s="85"/>
-      <c r="D149" s="85"/>
-      <c r="E149" s="85"/>
+      <c r="B149" s="66"/>
+      <c r="C149" s="66"/>
+      <c r="D149" s="66"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
